--- a/Week 4/Box Plot and Percentile/HousingPrices.xlsx
+++ b/Week 4/Box Plot and Percentile/HousingPrices.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaye\OneDrive\Documents\GitHub\IT365\Week 4\Box Plot and Percentile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BEEE8FB-0680-4AC9-BC4A-5A7539537B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A1A4C2-3A57-4B5C-8E59-E8AFBDE57524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-2325" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HousingPrices" sheetId="1" r:id="rId1"/>
@@ -19,37 +19,28 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">HousingPrices!$D$1:$D$917</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">HousingPrices!$D$918:$D$925</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">HousingPrices!$D$918:$D$927</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">HousingPrices!$D$1:$D$917</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">HousingPrices!$D$918:$D$925</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">HousingPrices!$D$918:$D$927</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'[1]BoxPlot and Percentile'!$D$1:$D$729</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'[1]BoxPlot and Percentile'!$D$730:$D$925</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">HousingPrices!$D$1:$D$917</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">HousingPrices!$D$918:$D$925</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">HousingPrices!$D$1:$D$917</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">HousingPrices!$D$918:$D$925</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">HousingPrices!$D$1:$D$729</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">HousingPrices!$D$918:$D$927</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">HousingPrices!$D$1:$D$917</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">HousingPrices!$D$918:$D$924</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">HousingPrices!$D$918:$D$927</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">HousingPrices!$D$730:$D$925</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'[1]BoxPlot and Percentile'!$D$1:$D$729</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'[1]BoxPlot and Percentile'!$D$730:$D$925</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'[1]BoxPlot and Percentile'!$D$1:$D$729</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'[1]BoxPlot and Percentile'!$D$730:$D$925</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">HousingPrices!$D$1:$D$917</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">HousingPrices!$D$918:$D$925</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'[1]BoxPlot and Percentile'!$D$1:$D$729</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'[1]BoxPlot and Percentile'!$D$730:$D$925</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'[1]BoxPlot and Percentile'!$D$1:$D$729</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'[1]BoxPlot and Percentile'!$D$730:$D$925</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="1780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1781">
   <si>
     <t>Address</t>
   </si>
@@ -5389,12 +5380,15 @@
   </si>
   <si>
     <t>Lower</t>
+  </si>
+  <si>
+    <t>Wrong box plot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5872,14 +5866,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5943,7 +5942,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5953,7 +5952,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{ABB544C4-C3B2-4A24-93A9-2354B9F26152}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Price 685000 475000 850000 580000 720000 450000 450000 590000 399000 300000 540000 539000 390000 575000 650000 475000 700000 325000 399000 375000 1625000 575000 600000 525000 350000 350000 575000 375000 1650000 325000 800000 1950000 735000 3925000 475000 275000 375000 570000 375000 895000 365000 550000 325000 429000 650000 350000 475000 325000 425000 350000 350000 375000 450000 1185000 385000 687500 585000 1295000 375000 500000 300000 375000 400000 850000 550000 275000 330000 700000 500000 369000 245000 350000 425000 NA 375000 335000 450000 395000 300000 450000 415000 650000 425000 469000 485000 225000 285000 995000 1475000 475000 475000 395000 375000 400000 325000 400000 475000 425000 375000 365000 500000 450000 725000 4550000 225000 375000 495000 475000 450000 475000 475000 345000 369000 320000 465000 340000 375000 595000 525000 245000 275000 575000 250000 975000 375000 1100000 750000 439000 375000 445000 325000 415000 300000 915000 685000 350000 1025000 895000 350000 265000 500000 295000 1175000 995000 385000 550000 325000 225000 395000 425000 525000 800000 400000 250000 360000 1050000 799000 1700000 825000 290000 469000 625000 1050000 540000 285000 859000 275000 525000 375000 399500 430000 1300000 1750000 950000 1450000 285000 300000 1500000 685000 4495000 989000 765000 900000 665000 2475000 475000 300000 350000 450000 600000 350000 595000 335000 1295000 825000 5950000 325000 450000 1450000 585000 1200000 1550000 1250000 998000 395000 935000 1050000 729000 699000 1500000 400000 550000 950000 975000 295000 350000 685000 1499000 1275000 375000 1595000 439000 785000 395000 595000 875000 295000 520000 439000 410000 275000 2450000 350000 1795000 835000 985000 425000 635000 999500 1050000 225000 1099000 895000 899000 799000 719000 750000 285000 285000 900000 475000 545000 685000 2200000 650000 1100011 1200000 1495000 295000 1000000 1150000 2250000 1350000 1650000 2750000 1050000 469000 669000 300000 425000 749000 700000 389000 900000 1750000 275000 3500000 400000 850000 1700000 2325000 1495000 549000 1375000 1250000 500000 575000 2475000 1425000 1695000 515000 1095000 2500000 519900 700000 2650000 1149000 280000 600000 950000 849000 3680000 850000 750750 1400000 4900000 899000 895000 1695000 1085000 300000 649000 785000 565000 1395000 795000 1200000 995000 775000 825000 1249000 NA 380000 450000 399000 650000 485000 1599000 950000 629000 359000 419000 250000 320000 3500000 415000 750000 420000 525000 550000 450000 425000 699000 675000 1150000 1250000 1450000 240000 345000 425000 250000 485000 1200000 325000 275000 365000 300000 485000 725000 325000 225000 690000 250000 825000 239000 400000 430000 485000 300000 550000 325000 250000 675000 295000 350000 375000 360000 325000 250000 550000 325000 235000 450000 245000 1400000 650000 465000 735000 675000 425000 635000 300000 375000 300000 910000 385000 775000 349500 375000 325000 295000 345000 325000 245000 650000 450000 525000 315000 500000 285000 600000 425000 225000 440000 450000 425000 230000 395000 550000 350000 335000 300000 270000 675000 450000 450000 549000 265000 395000 275000 400000 450000 395000 335000 425000 325000 590000 345000 398011 900000 400000 825000 415000 685000 610000 295000 339000 310000 395000 335000 275000 425000 225000 500000 600000 300000 350000 475000 510000 225000 545000 550000 225000 320000 360000 475000 425000 395000 265000 230000 750000 1000000 825000 425000 369000 300000 389000 300000 800000 600000 300000 415000 325000 775000 750000 650000 600000 325000 385000 875000 500000 900000 350000 350000 450000 325000 200000 575000 325000 400000 365000 350000 300000 375000 415000 300000 625000 315000 325000 370000 298000 375000 325000 325000 375000 295000 375000 295000 275000 345000 500000 390000 400000 250000 625000 550000 585000 425000 300000 300000 275000 525000 725000 350000 275000 450000 325000 425000 300000 330000 215000 695000 750000 400000 585000 395000 250000 725000 275000 700000 260000 275000 535000 465000 490000 375000 425000 265000 425000 525000 625000 380000 950000 350000 325000 550000 300000 245000 230000 395000 365000 698000 495000 375000 375000 1200000 425000 730000 325000 275000 535000 375000 775000 375000 400000 300000 375000 295000 345000 260000 225000 425000 475000 425000 1170000 520000 350000 289500 480000 325000 250000 350000 600000 350000 525000 500000 700000 300000 175000 365000 NA 375000 425000 1320000 469000 270000 325000 650000 550000 1150000 385000 325000 750000 465000 300000 250000 500000 875000 399000 925000 875000 930000 725000 575000 600000 600000 265000 350000 340000 350000 430000 975000 500000 850000 645000 425000 1090000 895000 465000 700000 325000 695000 825000 280000 550000 325000 325000 275000 340000 550000 500000 750000 499000 1750000 1250000 319000 1100000 325000 475000 300000 265000 399500 725000 625000 399000 445000 550000 675000 325000 600000 375000 575000 475000 500000 275000 1775000 525000 400000 375000 550000 525000 760000 700000 675000 325000 459000 350000 325000 275000 275000 700000 209000 1325000 850000 485000 385000 650000 450000 450000 600000 245000 500000 600000 595000 995000 475000 275000 285000 585000 310000 495000 475000 425000 875000 560000 700000 1150000 NA</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6611,7 +6610,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6619875" y="1800225"/>
-              <a:ext cx="4593771" cy="2743200"/>
+              <a:ext cx="4098471" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11579,16 +11578,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" customWidth="1"/>
     <col min="16" max="16" width="1.5703125" customWidth="1"/>
     <col min="19" max="19" width="7.85546875" customWidth="1"/>
   </cols>
@@ -11615,14 +11616,14 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>1766</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="6"/>
+      <c r="N1" s="4" t="s">
         <v>1767</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -11650,20 +11651,20 @@
         <v>52.362175999999998</v>
       </c>
       <c r="I2">
-        <f>1+I1</f>
+        <f t="shared" ref="I2:I65" si="0">1+I1</f>
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>1763</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="5">
         <f>MIN(D2:D925)</f>
         <v>175000</v>
       </c>
       <c r="N2" t="s">
         <v>1768</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="7">
         <f>(R2+1)*0.45</f>
         <v>416.25</v>
       </c>
@@ -11700,20 +11701,20 @@
         <v>52.376041000000001</v>
       </c>
       <c r="I3">
-        <f>1+I2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K3" t="s">
         <v>1764</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="5">
         <f>MAX(D2:D925)</f>
         <v>5950000</v>
       </c>
       <c r="N3" t="s">
         <v>1769</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="7">
         <v>0.25</v>
       </c>
       <c r="Q3" t="s">
@@ -11750,20 +11751,20 @@
         <v>52.362890999999998</v>
       </c>
       <c r="I4">
-        <f>1+I3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K4" t="s">
         <v>1762</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <f>_xlfn.QUARTILE.EXC(D2:D925, 3)</f>
         <v>700000</v>
       </c>
       <c r="N4" t="s">
         <v>1770</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="7">
         <v>416</v>
       </c>
       <c r="Q4" t="s">
@@ -11800,20 +11801,20 @@
         <v>52.361730000000001</v>
       </c>
       <c r="I5">
-        <f>1+I4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K5" t="s">
         <v>1761</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <f>_xlfn.QUARTILE.EXC(D2:D925,1)</f>
         <v>350000</v>
       </c>
       <c r="N5" t="s">
         <v>1771</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="7">
         <f>R4-R3</f>
         <v>0</v>
       </c>
@@ -11844,24 +11845,24 @@
         <v>52.370666</v>
       </c>
       <c r="I6">
-        <f>1+I5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K6" t="s">
         <v>1765</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <f>L4-L5</f>
         <v>350000</v>
       </c>
       <c r="N6" t="s">
         <v>1772</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="7">
         <f>O5*O3</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>1777</v>
       </c>
     </row>
@@ -11891,17 +11892,17 @@
         <v>52.381779999999999</v>
       </c>
       <c r="I7">
-        <f>1+I6</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N7" t="s">
         <v>1773</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="7">
         <f>R3+O6</f>
         <v>79</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <f>_xlfn.PERCENTILE.EXC(E2:E925,0.45)</f>
         <v>79</v>
       </c>
@@ -11932,7 +11933,7 @@
         <v>52.402968000000001</v>
       </c>
       <c r="I8">
-        <f>1+I7</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K8" t="s">
@@ -11969,7 +11970,7 @@
         <v>52.338759000000003</v>
       </c>
       <c r="I9">
-        <f>1+I8</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K9" t="s">
@@ -12006,7 +12007,7 @@
         <v>52.376657999999999</v>
       </c>
       <c r="I10">
-        <f>1+I9</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -12036,7 +12037,7 @@
         <v>52.325695000000003</v>
       </c>
       <c r="I11">
-        <f>1+I10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -12066,7 +12067,7 @@
         <v>52.366427999999999</v>
       </c>
       <c r="I12">
-        <f>1+I11</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -12096,7 +12097,7 @@
         <v>52.384661000000001</v>
       </c>
       <c r="I13">
-        <f>1+I12</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -12126,7 +12127,7 @@
         <v>52.367946000000003</v>
       </c>
       <c r="I14">
-        <f>1+I13</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -12156,7 +12157,7 @@
         <v>52.354405999999997</v>
       </c>
       <c r="I15">
-        <f>1+I14</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -12186,11 +12187,11 @@
         <v>52.374085000000001</v>
       </c>
       <c r="I16">
-        <f>1+I15</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>36</v>
       </c>
@@ -12216,11 +12217,11 @@
         <v>52.330962999999997</v>
       </c>
       <c r="I17">
-        <f>1+I16</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>899</v>
       </c>
@@ -12246,11 +12247,11 @@
         <v>52.381025000000001</v>
       </c>
       <c r="I18">
-        <f>1+I17</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>86</v>
       </c>
@@ -12276,11 +12277,11 @@
         <v>52.380834</v>
       </c>
       <c r="I19">
-        <f>1+I18</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>736</v>
       </c>
@@ -12306,11 +12307,11 @@
         <v>52.362788000000002</v>
       </c>
       <c r="I20">
-        <f>1+I19</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>771</v>
       </c>
@@ -12336,11 +12337,11 @@
         <v>52.327584999999999</v>
       </c>
       <c r="I21">
-        <f>1+I20</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -12366,11 +12367,11 @@
         <v>52.353110999999998</v>
       </c>
       <c r="I22">
-        <f>1+I21</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>824</v>
       </c>
@@ -12396,11 +12397,11 @@
         <v>52.352384999999998</v>
       </c>
       <c r="I23">
-        <f>1+I22</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>392</v>
       </c>
@@ -12426,11 +12427,11 @@
         <v>52.366734999999998</v>
       </c>
       <c r="I24">
-        <f>1+I23</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>394</v>
       </c>
@@ -12456,11 +12457,11 @@
         <v>52.351788999999997</v>
       </c>
       <c r="I25">
-        <f>1+I24</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>436</v>
       </c>
@@ -12486,11 +12487,14 @@
         <v>52.381318999999998</v>
       </c>
       <c r="I26">
-        <f>1+I25</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>116</v>
       </c>
@@ -12516,11 +12520,11 @@
         <v>52.373508999999999</v>
       </c>
       <c r="I27">
-        <f>1+I26</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>828</v>
       </c>
@@ -12546,11 +12550,11 @@
         <v>52.352384999999998</v>
       </c>
       <c r="I28">
-        <f>1+I27</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>410</v>
       </c>
@@ -12576,11 +12580,11 @@
         <v>52.388787999999998</v>
       </c>
       <c r="I29">
-        <f>1+I28</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>248</v>
       </c>
@@ -12606,11 +12610,11 @@
         <v>52.344914000000003</v>
       </c>
       <c r="I30">
-        <f>1+I29</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>249</v>
       </c>
@@ -12636,11 +12640,11 @@
         <v>52.344914000000003</v>
       </c>
       <c r="I31">
-        <f>1+I30</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -12666,7 +12670,7 @@
         <v>52.351731999999998</v>
       </c>
       <c r="I32">
-        <f>1+I31</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
@@ -12696,7 +12700,7 @@
         <v>52.352384999999998</v>
       </c>
       <c r="I33">
-        <f>1+I32</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
@@ -12726,7 +12730,7 @@
         <v>52.352384999999998</v>
       </c>
       <c r="I34">
-        <f>1+I33</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -12756,7 +12760,7 @@
         <v>52.383656000000002</v>
       </c>
       <c r="I35">
-        <f>1+I34</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
@@ -12786,7 +12790,7 @@
         <v>52.363526999999998</v>
       </c>
       <c r="I36">
-        <f>1+I35</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
@@ -12816,7 +12820,7 @@
         <v>52.363042</v>
       </c>
       <c r="I37">
-        <f>1+I36</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -12846,7 +12850,7 @@
         <v>52.377009999999999</v>
       </c>
       <c r="I38">
-        <f>1+I37</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
@@ -12876,7 +12880,7 @@
         <v>52.38503</v>
       </c>
       <c r="I39">
-        <f>1+I38</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -12906,7 +12910,7 @@
         <v>52.373395000000002</v>
       </c>
       <c r="I40">
-        <f>1+I39</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -12936,7 +12940,7 @@
         <v>52.409280000000003</v>
       </c>
       <c r="I41">
-        <f>1+I40</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -12966,7 +12970,7 @@
         <v>52.357424000000002</v>
       </c>
       <c r="I42">
-        <f>1+I41</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
@@ -12996,7 +13000,7 @@
         <v>52.365000000000002</v>
       </c>
       <c r="I43">
-        <f>1+I42</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
@@ -13026,7 +13030,7 @@
         <v>52.356830000000002</v>
       </c>
       <c r="I44">
-        <f>1+I43</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
@@ -13056,7 +13060,7 @@
         <v>52.363042</v>
       </c>
       <c r="I45">
-        <f>1+I44</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
@@ -13086,7 +13090,7 @@
         <v>52.354922000000002</v>
       </c>
       <c r="I46">
-        <f>1+I45</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -13116,7 +13120,7 @@
         <v>52.354173000000003</v>
       </c>
       <c r="I47">
-        <f>1+I46</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
@@ -13146,7 +13150,7 @@
         <v>52.375584000000003</v>
       </c>
       <c r="I48">
-        <f>1+I47</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
@@ -13176,7 +13180,7 @@
         <v>52.375562000000002</v>
       </c>
       <c r="I49">
-        <f>1+I48</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -13206,7 +13210,7 @@
         <v>52.383093000000002</v>
       </c>
       <c r="I50">
-        <f>1+I49</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
@@ -13236,7 +13240,7 @@
         <v>52.363712999999997</v>
       </c>
       <c r="I51">
-        <f>1+I50</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -13266,7 +13270,7 @@
         <v>52.382635000000001</v>
       </c>
       <c r="I52">
-        <f>1+I51</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
@@ -13296,7 +13300,7 @@
         <v>52.383108999999997</v>
       </c>
       <c r="I53">
-        <f>1+I52</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
@@ -13326,7 +13330,7 @@
         <v>52.390873999999997</v>
       </c>
       <c r="I54">
-        <f>1+I53</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
@@ -13356,7 +13360,7 @@
         <v>52.364933999999998</v>
       </c>
       <c r="I55">
-        <f>1+I54</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
@@ -13386,7 +13390,7 @@
         <v>52.364187000000001</v>
       </c>
       <c r="I56">
-        <f>1+I55</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
@@ -13416,7 +13420,7 @@
         <v>52.347835000000003</v>
       </c>
       <c r="I57">
-        <f>1+I56</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
@@ -13446,7 +13450,7 @@
         <v>52.369658999999999</v>
       </c>
       <c r="I58">
-        <f>1+I57</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
@@ -13476,7 +13480,7 @@
         <v>52.324953000000001</v>
       </c>
       <c r="I59">
-        <f>1+I58</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
@@ -13506,7 +13510,7 @@
         <v>52.317543999999998</v>
       </c>
       <c r="I60">
-        <f>1+I59</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
@@ -13536,7 +13540,7 @@
         <v>52.386341999999999</v>
       </c>
       <c r="I61">
-        <f>1+I60</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -13566,7 +13570,7 @@
         <v>52.365465999999998</v>
       </c>
       <c r="I62">
-        <f>1+I61</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
@@ -13596,7 +13600,7 @@
         <v>52.375563</v>
       </c>
       <c r="I63">
-        <f>1+I62</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
@@ -13626,7 +13630,7 @@
         <v>52.365960000000001</v>
       </c>
       <c r="I64">
-        <f>1+I63</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
@@ -13656,7 +13660,7 @@
         <v>52.368921999999998</v>
       </c>
       <c r="I65">
-        <f>1+I64</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
@@ -13686,7 +13690,7 @@
         <v>52.347686000000003</v>
       </c>
       <c r="I66">
-        <f>1+I65</f>
+        <f t="shared" ref="I66:I129" si="1">1+I65</f>
         <v>65</v>
       </c>
     </row>
@@ -13716,7 +13720,7 @@
         <v>52.367037000000003</v>
       </c>
       <c r="I67">
-        <f>1+I66</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
@@ -13746,7 +13750,7 @@
         <v>52.324179000000001</v>
       </c>
       <c r="I68">
-        <f>1+I67</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
     </row>
@@ -13776,7 +13780,7 @@
         <v>52.377932999999999</v>
       </c>
       <c r="I69">
-        <f>1+I68</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
@@ -13806,7 +13810,7 @@
         <v>52.361331</v>
       </c>
       <c r="I70">
-        <f>1+I69</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
@@ -13836,7 +13840,7 @@
         <v>52.351649999999999</v>
       </c>
       <c r="I71">
-        <f>1+I70</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
@@ -13866,7 +13870,7 @@
         <v>52.365392999999997</v>
       </c>
       <c r="I72">
-        <f>1+I71</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
@@ -13896,7 +13900,7 @@
         <v>52.384121</v>
       </c>
       <c r="I73">
-        <f>1+I72</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
@@ -13926,7 +13930,7 @@
         <v>52.358041999999998</v>
       </c>
       <c r="I74">
-        <f>1+I73</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
@@ -13956,7 +13960,7 @@
         <v>52.378255000000003</v>
       </c>
       <c r="I75">
-        <f>1+I74</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
     </row>
@@ -13986,7 +13990,7 @@
         <v>52.373139999999999</v>
       </c>
       <c r="I76">
-        <f>1+I75</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -14016,7 +14020,7 @@
         <v>52.372951</v>
       </c>
       <c r="I77">
-        <f>1+I76</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
@@ -14046,7 +14050,7 @@
         <v>52.382654000000002</v>
       </c>
       <c r="I78">
-        <f>1+I77</f>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
@@ -14076,7 +14080,7 @@
         <v>52.354368999999998</v>
       </c>
       <c r="I79">
-        <f>1+I78</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
@@ -14106,7 +14110,7 @@
         <v>52.351655999999998</v>
       </c>
       <c r="I80">
-        <f>1+I79</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
@@ -14136,7 +14140,7 @@
         <v>52.356445999999998</v>
       </c>
       <c r="I81">
-        <f>1+I80</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
@@ -14166,7 +14170,7 @@
         <v>52.358857</v>
       </c>
       <c r="I82">
-        <f>1+I81</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
@@ -14196,7 +14200,7 @@
         <v>52.383555999999999</v>
       </c>
       <c r="I83">
-        <f>1+I82</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
@@ -14226,7 +14230,7 @@
         <v>52.353214000000001</v>
       </c>
       <c r="I84">
-        <f>1+I83</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
@@ -14256,7 +14260,7 @@
         <v>52.377960999999999</v>
       </c>
       <c r="I85">
-        <f>1+I84</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
@@ -14286,7 +14290,7 @@
         <v>52.380808000000002</v>
       </c>
       <c r="I86">
-        <f>1+I85</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
@@ -14316,7 +14320,7 @@
         <v>52.377960999999999</v>
       </c>
       <c r="I87">
-        <f>1+I86</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
@@ -14346,7 +14350,7 @@
         <v>52.36504</v>
       </c>
       <c r="I88">
-        <f>1+I87</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
@@ -14376,7 +14380,7 @@
         <v>52.369610999999999</v>
       </c>
       <c r="I89">
-        <f>1+I88</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
@@ -14406,7 +14410,7 @@
         <v>52.376702000000002</v>
       </c>
       <c r="I90">
-        <f>1+I89</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
@@ -14436,7 +14440,7 @@
         <v>52.353976000000003</v>
       </c>
       <c r="I91">
-        <f>1+I90</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -14466,7 +14470,7 @@
         <v>52.380834</v>
       </c>
       <c r="I92">
-        <f>1+I91</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -14496,7 +14500,7 @@
         <v>52.364635999999997</v>
       </c>
       <c r="I93">
-        <f>1+I92</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
@@ -14526,7 +14530,7 @@
         <v>52.346150000000002</v>
       </c>
       <c r="I94">
-        <f>1+I93</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
@@ -14556,7 +14560,7 @@
         <v>52.362639999999999</v>
       </c>
       <c r="I95">
-        <f>1+I94</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
@@ -14586,7 +14590,7 @@
         <v>52.380457999999997</v>
       </c>
       <c r="I96">
-        <f>1+I95</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
@@ -14616,7 +14620,7 @@
         <v>52.347656000000001</v>
       </c>
       <c r="I97">
-        <f>1+I96</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
     </row>
@@ -14646,7 +14650,7 @@
         <v>52.382030999999998</v>
       </c>
       <c r="I98">
-        <f>1+I97</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
@@ -14676,7 +14680,7 @@
         <v>52.374853999999999</v>
       </c>
       <c r="I99">
-        <f>1+I98</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
@@ -14706,7 +14710,7 @@
         <v>52.364949000000003</v>
       </c>
       <c r="I100">
-        <f>1+I99</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
@@ -14736,7 +14740,7 @@
         <v>52.352716999999998</v>
       </c>
       <c r="I101">
-        <f>1+I100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -14766,7 +14770,7 @@
         <v>52.372126999999999</v>
       </c>
       <c r="I102">
-        <f>1+I101</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
@@ -14796,7 +14800,7 @@
         <v>52.355843999999998</v>
       </c>
       <c r="I103">
-        <f>1+I102</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
@@ -14826,7 +14830,7 @@
         <v>52.380629999999996</v>
       </c>
       <c r="I104">
-        <f>1+I103</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
@@ -14856,7 +14860,7 @@
         <v>52.350960999999998</v>
       </c>
       <c r="I105">
-        <f>1+I104</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
@@ -14886,7 +14890,7 @@
         <v>52.340643999999998</v>
       </c>
       <c r="I106">
-        <f>1+I105</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
@@ -14916,7 +14920,7 @@
         <v>52.384166</v>
       </c>
       <c r="I107">
-        <f>1+I106</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
@@ -14946,7 +14950,7 @@
         <v>52.388005</v>
       </c>
       <c r="I108">
-        <f>1+I107</f>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
     </row>
@@ -14976,7 +14980,7 @@
         <v>52.384121</v>
       </c>
       <c r="I109">
-        <f>1+I108</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
@@ -15006,7 +15010,7 @@
         <v>52.380215</v>
       </c>
       <c r="I110">
-        <f>1+I109</f>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
@@ -15036,7 +15040,7 @@
         <v>52.367418000000001</v>
       </c>
       <c r="I111">
-        <f>1+I110</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
@@ -15066,7 +15070,7 @@
         <v>52.364224</v>
       </c>
       <c r="I112">
-        <f>1+I111</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
     </row>
@@ -15096,7 +15100,7 @@
         <v>52.379548</v>
       </c>
       <c r="I113">
-        <f>1+I112</f>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
@@ -15126,7 +15130,7 @@
         <v>52.371898999999999</v>
       </c>
       <c r="I114">
-        <f>1+I113</f>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
@@ -15156,7 +15160,7 @@
         <v>52.365552000000001</v>
       </c>
       <c r="I115">
-        <f>1+I114</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
@@ -15186,7 +15190,7 @@
         <v>52.363470999999997</v>
       </c>
       <c r="I116">
-        <f>1+I115</f>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
@@ -15216,7 +15220,7 @@
         <v>52.366765999999998</v>
       </c>
       <c r="I117">
-        <f>1+I116</f>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
     </row>
@@ -15246,7 +15250,7 @@
         <v>52.380662999999998</v>
       </c>
       <c r="I118">
-        <f>1+I117</f>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
     </row>
@@ -15276,7 +15280,7 @@
         <v>52.355806999999999</v>
       </c>
       <c r="I119">
-        <f>1+I118</f>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
@@ -15306,7 +15310,7 @@
         <v>52.417569</v>
       </c>
       <c r="I120">
-        <f>1+I119</f>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
@@ -15336,7 +15340,7 @@
         <v>52.395800000000001</v>
       </c>
       <c r="I121">
-        <f>1+I120</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -15366,7 +15370,7 @@
         <v>52.378363</v>
       </c>
       <c r="I122">
-        <f>1+I121</f>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
     </row>
@@ -15396,7 +15400,7 @@
         <v>52.378843000000003</v>
       </c>
       <c r="I123">
-        <f>1+I122</f>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
@@ -15426,7 +15430,7 @@
         <v>52.384683000000003</v>
       </c>
       <c r="I124">
-        <f>1+I123</f>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
     </row>
@@ -15456,7 +15460,7 @@
         <v>52.366405</v>
       </c>
       <c r="I125">
-        <f>1+I124</f>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
@@ -15486,7 +15490,7 @@
         <v>52.368955</v>
       </c>
       <c r="I126">
-        <f>1+I125</f>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
@@ -15516,7 +15520,7 @@
         <v>52.384354999999999</v>
       </c>
       <c r="I127">
-        <f>1+I126</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
     </row>
@@ -15546,7 +15550,7 @@
         <v>52.366236000000001</v>
       </c>
       <c r="I128">
-        <f>1+I127</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
     </row>
@@ -15576,7 +15580,7 @@
         <v>52.363608999999997</v>
       </c>
       <c r="I129">
-        <f>1+I128</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
     </row>
@@ -15606,7 +15610,7 @@
         <v>52.378439999999998</v>
       </c>
       <c r="I130">
-        <f>1+I129</f>
+        <f t="shared" ref="I130:I193" si="2">1+I129</f>
         <v>129</v>
       </c>
     </row>
@@ -15636,7 +15640,7 @@
         <v>52.339554</v>
       </c>
       <c r="I131">
-        <f>1+I130</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
     </row>
@@ -15666,7 +15670,7 @@
         <v>52.363256</v>
       </c>
       <c r="I132">
-        <f>1+I131</f>
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
     </row>
@@ -15696,7 +15700,7 @@
         <v>52.373735000000003</v>
       </c>
       <c r="I133">
-        <f>1+I132</f>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
     </row>
@@ -15726,7 +15730,7 @@
         <v>52.363549999999996</v>
       </c>
       <c r="I134">
-        <f>1+I133</f>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
     </row>
@@ -15756,7 +15760,7 @@
         <v>52.366081999999999</v>
       </c>
       <c r="I135">
-        <f>1+I134</f>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
     </row>
@@ -15786,7 +15790,7 @@
         <v>52.325544000000001</v>
       </c>
       <c r="I136">
-        <f>1+I135</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
     </row>
@@ -15816,7 +15820,7 @@
         <v>52.392426</v>
       </c>
       <c r="I137">
-        <f>1+I136</f>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
     </row>
@@ -15846,7 +15850,7 @@
         <v>52.376873000000003</v>
       </c>
       <c r="I138">
-        <f>1+I137</f>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -15876,7 +15880,7 @@
         <v>52.376809000000002</v>
       </c>
       <c r="I139">
-        <f>1+I138</f>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
     </row>
@@ -15906,7 +15910,7 @@
         <v>52.365364999999997</v>
       </c>
       <c r="I140">
-        <f>1+I139</f>
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
     </row>
@@ -15936,7 +15940,7 @@
         <v>52.356419000000002</v>
       </c>
       <c r="I141">
-        <f>1+I140</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
@@ -15966,7 +15970,7 @@
         <v>52.390376000000003</v>
       </c>
       <c r="I142">
-        <f>1+I141</f>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
     </row>
@@ -15996,7 +16000,7 @@
         <v>52.379632999999998</v>
       </c>
       <c r="I143">
-        <f>1+I142</f>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
     </row>
@@ -16026,7 +16030,7 @@
         <v>52.42145</v>
       </c>
       <c r="I144">
-        <f>1+I143</f>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
     </row>
@@ -16056,7 +16060,7 @@
         <v>52.324303999999998</v>
       </c>
       <c r="I145">
-        <f>1+I144</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
     </row>
@@ -16086,7 +16090,7 @@
         <v>52.320816000000001</v>
       </c>
       <c r="I146">
-        <f>1+I145</f>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
     </row>
@@ -16116,7 +16120,7 @@
         <v>52.324322000000002</v>
       </c>
       <c r="I147">
-        <f>1+I146</f>
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
     </row>
@@ -16146,7 +16150,7 @@
         <v>52.324230999999997</v>
       </c>
       <c r="I148">
-        <f>1+I147</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
     </row>
@@ -16176,7 +16180,7 @@
         <v>52.363678999999998</v>
       </c>
       <c r="I149">
-        <f>1+I148</f>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
     </row>
@@ -16206,7 +16210,7 @@
         <v>52.380045000000003</v>
       </c>
       <c r="I150">
-        <f>1+I149</f>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
     </row>
@@ -16236,7 +16240,7 @@
         <v>52.347889000000002</v>
       </c>
       <c r="I151">
-        <f>1+I150</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
@@ -16266,7 +16270,7 @@
         <v>52.365662999999998</v>
       </c>
       <c r="I152">
-        <f>1+I151</f>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
     </row>
@@ -16296,7 +16300,7 @@
         <v>52.343986000000001</v>
       </c>
       <c r="I153">
-        <f>1+I152</f>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
     </row>
@@ -16326,7 +16330,7 @@
         <v>52.341372999999997</v>
       </c>
       <c r="I154">
-        <f>1+I153</f>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
     </row>
@@ -16356,7 +16360,7 @@
         <v>52.382227999999998</v>
       </c>
       <c r="I155">
-        <f>1+I154</f>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
     </row>
@@ -16386,7 +16390,7 @@
         <v>52.365273000000002</v>
       </c>
       <c r="I156">
-        <f>1+I155</f>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
     </row>
@@ -16416,7 +16420,7 @@
         <v>52.353704</v>
       </c>
       <c r="I157">
-        <f>1+I156</f>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
     </row>
@@ -16446,7 +16450,7 @@
         <v>52.326205000000002</v>
       </c>
       <c r="I158">
-        <f>1+I157</f>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
     </row>
@@ -16476,7 +16480,7 @@
         <v>52.384197</v>
       </c>
       <c r="I159">
-        <f>1+I158</f>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
     </row>
@@ -16506,7 +16510,7 @@
         <v>52.381715</v>
       </c>
       <c r="I160">
-        <f>1+I159</f>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
     </row>
@@ -16536,7 +16540,7 @@
         <v>52.372608</v>
       </c>
       <c r="I161">
-        <f>1+I160</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
@@ -16566,7 +16570,7 @@
         <v>52.352814000000002</v>
       </c>
       <c r="I162">
-        <f>1+I161</f>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
     </row>
@@ -16596,7 +16600,7 @@
         <v>52.348587000000002</v>
       </c>
       <c r="I163">
-        <f>1+I162</f>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
     </row>
@@ -16626,7 +16630,7 @@
         <v>52.370556999999998</v>
       </c>
       <c r="I164">
-        <f>1+I163</f>
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
     </row>
@@ -16656,7 +16660,7 @@
         <v>52.350197999999999</v>
       </c>
       <c r="I165">
-        <f>1+I164</f>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
     </row>
@@ -16686,7 +16690,7 @@
         <v>52.345314999999999</v>
       </c>
       <c r="I166">
-        <f>1+I165</f>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
     </row>
@@ -16716,7 +16720,7 @@
         <v>52.346145</v>
       </c>
       <c r="I167">
-        <f>1+I166</f>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
     </row>
@@ -16746,7 +16750,7 @@
         <v>52.361606000000002</v>
       </c>
       <c r="I168">
-        <f>1+I167</f>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
     </row>
@@ -16776,7 +16780,7 @@
         <v>52.3628</v>
       </c>
       <c r="I169">
-        <f>1+I168</f>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
     </row>
@@ -16806,7 +16810,7 @@
         <v>52.361977000000003</v>
       </c>
       <c r="I170">
-        <f>1+I169</f>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
     </row>
@@ -16836,7 +16840,7 @@
         <v>52.328459000000002</v>
       </c>
       <c r="I171">
-        <f>1+I170</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
@@ -16866,7 +16870,7 @@
         <v>52.373198000000002</v>
       </c>
       <c r="I172">
-        <f>1+I171</f>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
     </row>
@@ -16896,7 +16900,7 @@
         <v>52.373596999999997</v>
       </c>
       <c r="I173">
-        <f>1+I172</f>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
     </row>
@@ -16926,7 +16930,7 @@
         <v>52.353774999999999</v>
       </c>
       <c r="I174">
-        <f>1+I173</f>
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
     </row>
@@ -16956,7 +16960,7 @@
         <v>52.374977999999999</v>
       </c>
       <c r="I175">
-        <f>1+I174</f>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
     </row>
@@ -16986,7 +16990,7 @@
         <v>52.344741999999997</v>
       </c>
       <c r="I176">
-        <f>1+I175</f>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
     </row>
@@ -17016,7 +17020,7 @@
         <v>52.295757000000002</v>
       </c>
       <c r="I177">
-        <f>1+I176</f>
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
     </row>
@@ -17046,7 +17050,7 @@
         <v>52.395845999999999</v>
       </c>
       <c r="I178">
-        <f>1+I177</f>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
     </row>
@@ -17076,7 +17080,7 @@
         <v>52.360041000000002</v>
       </c>
       <c r="I179">
-        <f>1+I178</f>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
     </row>
@@ -17106,7 +17110,7 @@
         <v>52.364742999999997</v>
       </c>
       <c r="I180">
-        <f>1+I179</f>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
     </row>
@@ -17136,7 +17140,7 @@
         <v>52.348137999999999</v>
       </c>
       <c r="I181">
-        <f>1+I180</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
@@ -17166,7 +17170,7 @@
         <v>52.338794999999998</v>
       </c>
       <c r="I182">
-        <f>1+I181</f>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
     </row>
@@ -17196,7 +17200,7 @@
         <v>52.372779999999999</v>
       </c>
       <c r="I183">
-        <f>1+I182</f>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
     </row>
@@ -17226,7 +17230,7 @@
         <v>52.356214999999999</v>
       </c>
       <c r="I184">
-        <f>1+I183</f>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
     </row>
@@ -17256,7 +17260,7 @@
         <v>52.349497999999997</v>
       </c>
       <c r="I185">
-        <f>1+I184</f>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
     </row>
@@ -17286,7 +17290,7 @@
         <v>52.354123000000001</v>
       </c>
       <c r="I186">
-        <f>1+I185</f>
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
     </row>
@@ -17316,7 +17320,7 @@
         <v>52.370868000000002</v>
       </c>
       <c r="I187">
-        <f>1+I186</f>
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
     </row>
@@ -17346,7 +17350,7 @@
         <v>52.355142999999998</v>
       </c>
       <c r="I188">
-        <f>1+I187</f>
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
     </row>
@@ -17376,7 +17380,7 @@
         <v>52.355142999999998</v>
       </c>
       <c r="I189">
-        <f>1+I188</f>
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
     </row>
@@ -17406,7 +17410,7 @@
         <v>52.397320999999998</v>
       </c>
       <c r="I190">
-        <f>1+I189</f>
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
     </row>
@@ -17436,7 +17440,7 @@
         <v>52.325097</v>
       </c>
       <c r="I191">
-        <f>1+I190</f>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
     </row>
@@ -17466,7 +17470,7 @@
         <v>52.352164999999999</v>
       </c>
       <c r="I192">
-        <f>1+I191</f>
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
     </row>
@@ -17496,7 +17500,7 @@
         <v>52.383963000000001</v>
       </c>
       <c r="I193">
-        <f>1+I192</f>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
     </row>
@@ -17526,7 +17530,7 @@
         <v>52.361159000000001</v>
       </c>
       <c r="I194">
-        <f>1+I193</f>
+        <f t="shared" ref="I194:I257" si="3">1+I193</f>
         <v>193</v>
       </c>
     </row>
@@ -17556,7 +17560,7 @@
         <v>52.373199</v>
       </c>
       <c r="I195">
-        <f>1+I194</f>
+        <f t="shared" si="3"/>
         <v>194</v>
       </c>
     </row>
@@ -17586,7 +17590,7 @@
         <v>52.384118000000001</v>
       </c>
       <c r="I196">
-        <f>1+I195</f>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
     </row>
@@ -17616,7 +17620,7 @@
         <v>52.347397999999998</v>
       </c>
       <c r="I197">
-        <f>1+I196</f>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
     </row>
@@ -17646,7 +17650,7 @@
         <v>52.370556999999998</v>
       </c>
       <c r="I198">
-        <f>1+I197</f>
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
     </row>
@@ -17676,7 +17680,7 @@
         <v>52.325252999999996</v>
       </c>
       <c r="I199">
-        <f>1+I198</f>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
     </row>
@@ -17706,7 +17710,7 @@
         <v>52.326171000000002</v>
       </c>
       <c r="I200">
-        <f>1+I199</f>
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
     </row>
@@ -17736,7 +17740,7 @@
         <v>52.378753000000003</v>
       </c>
       <c r="I201">
-        <f>1+I200</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
@@ -17766,7 +17770,7 @@
         <v>52.378934000000001</v>
       </c>
       <c r="I202">
-        <f>1+I201</f>
+        <f t="shared" si="3"/>
         <v>201</v>
       </c>
     </row>
@@ -17796,7 +17800,7 @@
         <v>52.365813000000003</v>
       </c>
       <c r="I203">
-        <f>1+I202</f>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
     </row>
@@ -17826,7 +17830,7 @@
         <v>52.363771999999997</v>
       </c>
       <c r="I204">
-        <f>1+I203</f>
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
     </row>
@@ -17856,7 +17860,7 @@
         <v>52.352846999999997</v>
       </c>
       <c r="I205">
-        <f>1+I204</f>
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
     </row>
@@ -17886,7 +17890,7 @@
         <v>52.361320999999997</v>
       </c>
       <c r="I206">
-        <f>1+I205</f>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
     </row>
@@ -17916,7 +17920,7 @@
         <v>52.369338999999997</v>
       </c>
       <c r="I207">
-        <f>1+I206</f>
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
     </row>
@@ -17946,7 +17950,7 @@
         <v>52.353029999999997</v>
       </c>
       <c r="I208">
-        <f>1+I207</f>
+        <f t="shared" si="3"/>
         <v>207</v>
       </c>
     </row>
@@ -17976,7 +17980,7 @@
         <v>52.363157999999999</v>
       </c>
       <c r="I209">
-        <f>1+I208</f>
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
     </row>
@@ -18006,7 +18010,7 @@
         <v>52.372906999999998</v>
       </c>
       <c r="I210">
-        <f>1+I209</f>
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
     </row>
@@ -18036,7 +18040,7 @@
         <v>52.372906999999998</v>
       </c>
       <c r="I211">
-        <f>1+I210</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
@@ -18066,7 +18070,7 @@
         <v>52.372906999999998</v>
       </c>
       <c r="I212">
-        <f>1+I211</f>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
     </row>
@@ -18096,7 +18100,7 @@
         <v>52.296956999999999</v>
       </c>
       <c r="I213">
-        <f>1+I212</f>
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
     </row>
@@ -18126,7 +18130,7 @@
         <v>52.394351999999998</v>
       </c>
       <c r="I214">
-        <f>1+I213</f>
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
     </row>
@@ -18156,7 +18160,7 @@
         <v>52.363717000000001</v>
       </c>
       <c r="I215">
-        <f>1+I214</f>
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
     </row>
@@ -18186,7 +18190,7 @@
         <v>52.362946000000001</v>
       </c>
       <c r="I216">
-        <f>1+I215</f>
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
     </row>
@@ -18216,7 +18220,7 @@
         <v>52.368343000000003</v>
       </c>
       <c r="I217">
-        <f>1+I216</f>
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
     </row>
@@ -18246,7 +18250,7 @@
         <v>52.380133000000001</v>
       </c>
       <c r="I218">
-        <f>1+I217</f>
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
     </row>
@@ -18276,7 +18280,7 @@
         <v>52.378706999999999</v>
       </c>
       <c r="I219">
-        <f>1+I218</f>
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
     </row>
@@ -18306,7 +18310,7 @@
         <v>52.359788000000002</v>
       </c>
       <c r="I220">
-        <f>1+I219</f>
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
     </row>
@@ -18336,7 +18340,7 @@
         <v>52.401727000000001</v>
       </c>
       <c r="I221">
-        <f>1+I220</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
     </row>
@@ -18366,7 +18370,7 @@
         <v>52.358255</v>
       </c>
       <c r="I222">
-        <f>1+I221</f>
+        <f t="shared" si="3"/>
         <v>221</v>
       </c>
     </row>
@@ -18396,7 +18400,7 @@
         <v>52.368960999999999</v>
       </c>
       <c r="I223">
-        <f>1+I222</f>
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
     </row>
@@ -18426,7 +18430,7 @@
         <v>52.354590000000002</v>
       </c>
       <c r="I224">
-        <f>1+I223</f>
+        <f t="shared" si="3"/>
         <v>223</v>
       </c>
     </row>
@@ -18456,7 +18460,7 @@
         <v>52.319485</v>
       </c>
       <c r="I225">
-        <f>1+I224</f>
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
     </row>
@@ -18486,7 +18490,7 @@
         <v>52.320576000000003</v>
       </c>
       <c r="I226">
-        <f>1+I225</f>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
     </row>
@@ -18516,7 +18520,7 @@
         <v>52.320408999999998</v>
       </c>
       <c r="I227">
-        <f>1+I226</f>
+        <f t="shared" si="3"/>
         <v>226</v>
       </c>
     </row>
@@ -18546,7 +18550,7 @@
         <v>52.325080999999997</v>
       </c>
       <c r="I228">
-        <f>1+I227</f>
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
     </row>
@@ -18576,7 +18580,7 @@
         <v>52.355787999999997</v>
       </c>
       <c r="I229">
-        <f>1+I228</f>
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
     </row>
@@ -18606,7 +18610,7 @@
         <v>52.348585999999997</v>
       </c>
       <c r="I230">
-        <f>1+I229</f>
+        <f t="shared" si="3"/>
         <v>229</v>
       </c>
     </row>
@@ -18636,7 +18640,7 @@
         <v>52.370072999999998</v>
       </c>
       <c r="I231">
-        <f>1+I230</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
@@ -18666,7 +18670,7 @@
         <v>52.361812999999998</v>
       </c>
       <c r="I232">
-        <f>1+I231</f>
+        <f t="shared" si="3"/>
         <v>231</v>
       </c>
     </row>
@@ -18696,7 +18700,7 @@
         <v>52.319741</v>
       </c>
       <c r="I233">
-        <f>1+I232</f>
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
     </row>
@@ -18726,7 +18730,7 @@
         <v>52.355404</v>
       </c>
       <c r="I234">
-        <f>1+I233</f>
+        <f t="shared" si="3"/>
         <v>233</v>
       </c>
     </row>
@@ -18756,7 +18760,7 @@
         <v>52.357145000000003</v>
       </c>
       <c r="I235">
-        <f>1+I234</f>
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
     </row>
@@ -18786,7 +18790,7 @@
         <v>52.383676000000001</v>
       </c>
       <c r="I236">
-        <f>1+I235</f>
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
     </row>
@@ -18816,7 +18820,7 @@
         <v>52.389024999999997</v>
       </c>
       <c r="I237">
-        <f>1+I236</f>
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
     </row>
@@ -18846,7 +18850,7 @@
         <v>52.362969</v>
       </c>
       <c r="I238">
-        <f>1+I237</f>
+        <f t="shared" si="3"/>
         <v>237</v>
       </c>
     </row>
@@ -18876,7 +18880,7 @@
         <v>52.379483</v>
       </c>
       <c r="I239">
-        <f>1+I238</f>
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
     </row>
@@ -18906,7 +18910,7 @@
         <v>52.399211999999999</v>
       </c>
       <c r="I240">
-        <f>1+I239</f>
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
     </row>
@@ -18936,7 +18940,7 @@
         <v>52.413848999999999</v>
       </c>
       <c r="I241">
-        <f>1+I240</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
@@ -18966,7 +18970,7 @@
         <v>52.370660999999998</v>
       </c>
       <c r="I242">
-        <f>1+I241</f>
+        <f t="shared" si="3"/>
         <v>241</v>
       </c>
     </row>
@@ -18996,7 +19000,7 @@
         <v>52.358618</v>
       </c>
       <c r="I243">
-        <f>1+I242</f>
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
     </row>
@@ -19026,7 +19030,7 @@
         <v>52.393537999999999</v>
       </c>
       <c r="I244">
-        <f>1+I243</f>
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
     </row>
@@ -19056,7 +19060,7 @@
         <v>52.365333</v>
       </c>
       <c r="I245">
-        <f>1+I244</f>
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
     </row>
@@ -19086,7 +19090,7 @@
         <v>52.352502000000001</v>
       </c>
       <c r="I246">
-        <f>1+I245</f>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
     </row>
@@ -19116,7 +19120,7 @@
         <v>52.309773</v>
       </c>
       <c r="I247">
-        <f>1+I246</f>
+        <f t="shared" si="3"/>
         <v>246</v>
       </c>
     </row>
@@ -19146,7 +19150,7 @@
         <v>52.356392</v>
       </c>
       <c r="I248">
-        <f>1+I247</f>
+        <f t="shared" si="3"/>
         <v>247</v>
       </c>
     </row>
@@ -19176,7 +19180,7 @@
         <v>52.375340999999999</v>
       </c>
       <c r="I249">
-        <f>1+I248</f>
+        <f t="shared" si="3"/>
         <v>248</v>
       </c>
     </row>
@@ -19206,7 +19210,7 @@
         <v>52.350909000000001</v>
       </c>
       <c r="I250">
-        <f>1+I249</f>
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
     </row>
@@ -19236,7 +19240,7 @@
         <v>52.351734</v>
       </c>
       <c r="I251">
-        <f>1+I250</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -19266,7 +19270,7 @@
         <v>52.347544999999997</v>
       </c>
       <c r="I252">
-        <f>1+I251</f>
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
     </row>
@@ -19296,7 +19300,7 @@
         <v>52.363757999999997</v>
       </c>
       <c r="I253">
-        <f>1+I252</f>
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
     </row>
@@ -19326,7 +19330,7 @@
         <v>52.358995999999998</v>
       </c>
       <c r="I254">
-        <f>1+I253</f>
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
     </row>
@@ -19356,7 +19360,7 @@
         <v>52.369627000000001</v>
       </c>
       <c r="I255">
-        <f>1+I254</f>
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
     </row>
@@ -19386,7 +19390,7 @@
         <v>52.396535999999998</v>
       </c>
       <c r="I256">
-        <f>1+I255</f>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
     </row>
@@ -19416,7 +19420,7 @@
         <v>52.414920000000002</v>
       </c>
       <c r="I257">
-        <f>1+I256</f>
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
     </row>
@@ -19446,7 +19450,7 @@
         <v>52.371498000000003</v>
       </c>
       <c r="I258">
-        <f>1+I257</f>
+        <f t="shared" ref="I258:I321" si="4">1+I257</f>
         <v>257</v>
       </c>
     </row>
@@ -19476,7 +19480,7 @@
         <v>52.384793999999999</v>
       </c>
       <c r="I259">
-        <f>1+I258</f>
+        <f t="shared" si="4"/>
         <v>258</v>
       </c>
     </row>
@@ -19506,7 +19510,7 @@
         <v>52.361767999999998</v>
       </c>
       <c r="I260">
-        <f>1+I259</f>
+        <f t="shared" si="4"/>
         <v>259</v>
       </c>
     </row>
@@ -19536,7 +19540,7 @@
         <v>52.359929000000001</v>
       </c>
       <c r="I261">
-        <f>1+I260</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
     </row>
@@ -19566,7 +19570,7 @@
         <v>52.365524000000001</v>
       </c>
       <c r="I262">
-        <f>1+I261</f>
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
     </row>
@@ -19596,7 +19600,7 @@
         <v>52.372996000000001</v>
       </c>
       <c r="I263">
-        <f>1+I262</f>
+        <f t="shared" si="4"/>
         <v>262</v>
       </c>
     </row>
@@ -19626,7 +19630,7 @@
         <v>52.394370000000002</v>
       </c>
       <c r="I264">
-        <f>1+I263</f>
+        <f t="shared" si="4"/>
         <v>263</v>
       </c>
     </row>
@@ -19656,7 +19660,7 @@
         <v>52.355711999999997</v>
       </c>
       <c r="I265">
-        <f>1+I264</f>
+        <f t="shared" si="4"/>
         <v>264</v>
       </c>
     </row>
@@ -19686,7 +19690,7 @@
         <v>52.352378999999999</v>
       </c>
       <c r="I266">
-        <f>1+I265</f>
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
     </row>
@@ -19716,7 +19720,7 @@
         <v>52.377783000000001</v>
       </c>
       <c r="I267">
-        <f>1+I266</f>
+        <f t="shared" si="4"/>
         <v>266</v>
       </c>
     </row>
@@ -19746,7 +19750,7 @@
         <v>52.359954999999999</v>
       </c>
       <c r="I268">
-        <f>1+I267</f>
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
     </row>
@@ -19776,7 +19780,7 @@
         <v>52.375720000000001</v>
       </c>
       <c r="I269">
-        <f>1+I268</f>
+        <f t="shared" si="4"/>
         <v>268</v>
       </c>
     </row>
@@ -19806,7 +19810,7 @@
         <v>52.368555999999998</v>
       </c>
       <c r="I270">
-        <f>1+I269</f>
+        <f t="shared" si="4"/>
         <v>269</v>
       </c>
     </row>
@@ -19836,7 +19840,7 @@
         <v>52.356157000000003</v>
       </c>
       <c r="I271">
-        <f>1+I270</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
     </row>
@@ -19866,7 +19870,7 @@
         <v>52.309662000000003</v>
       </c>
       <c r="I272">
-        <f>1+I271</f>
+        <f t="shared" si="4"/>
         <v>271</v>
       </c>
     </row>
@@ -19896,7 +19900,7 @@
         <v>52.383684000000002</v>
       </c>
       <c r="I273">
-        <f>1+I272</f>
+        <f t="shared" si="4"/>
         <v>272</v>
       </c>
     </row>
@@ -19926,7 +19930,7 @@
         <v>52.378644000000001</v>
       </c>
       <c r="I274">
-        <f>1+I273</f>
+        <f t="shared" si="4"/>
         <v>273</v>
       </c>
     </row>
@@ -19956,7 +19960,7 @@
         <v>52.394145000000002</v>
       </c>
       <c r="I275">
-        <f>1+I274</f>
+        <f t="shared" si="4"/>
         <v>274</v>
       </c>
     </row>
@@ -19986,7 +19990,7 @@
         <v>52.371338000000002</v>
       </c>
       <c r="I276">
-        <f>1+I275</f>
+        <f t="shared" si="4"/>
         <v>275</v>
       </c>
     </row>
@@ -20016,7 +20020,7 @@
         <v>52.412066000000003</v>
       </c>
       <c r="I277">
-        <f>1+I276</f>
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
     </row>
@@ -20046,7 +20050,7 @@
         <v>52.358916999999998</v>
       </c>
       <c r="I278">
-        <f>1+I277</f>
+        <f t="shared" si="4"/>
         <v>277</v>
       </c>
     </row>
@@ -20076,7 +20080,7 @@
         <v>52.377329000000003</v>
       </c>
       <c r="I279">
-        <f>1+I278</f>
+        <f t="shared" si="4"/>
         <v>278</v>
       </c>
     </row>
@@ -20106,7 +20110,7 @@
         <v>52.331729000000003</v>
       </c>
       <c r="I280">
-        <f>1+I279</f>
+        <f t="shared" si="4"/>
         <v>279</v>
       </c>
     </row>
@@ -20136,7 +20140,7 @@
         <v>52.349697999999997</v>
       </c>
       <c r="I281">
-        <f>1+I280</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
     </row>
@@ -20166,7 +20170,7 @@
         <v>52.398983999999999</v>
       </c>
       <c r="I282">
-        <f>1+I281</f>
+        <f t="shared" si="4"/>
         <v>281</v>
       </c>
     </row>
@@ -20196,7 +20200,7 @@
         <v>52.324796999999997</v>
       </c>
       <c r="I283">
-        <f>1+I282</f>
+        <f t="shared" si="4"/>
         <v>282</v>
       </c>
     </row>
@@ -20226,7 +20230,7 @@
         <v>52.379524000000004</v>
       </c>
       <c r="I284">
-        <f>1+I283</f>
+        <f t="shared" si="4"/>
         <v>283</v>
       </c>
     </row>
@@ -20256,7 +20260,7 @@
         <v>52.356012</v>
       </c>
       <c r="I285">
-        <f>1+I284</f>
+        <f t="shared" si="4"/>
         <v>284</v>
       </c>
     </row>
@@ -20286,7 +20290,7 @@
         <v>52.357987000000001</v>
       </c>
       <c r="I286">
-        <f>1+I285</f>
+        <f t="shared" si="4"/>
         <v>285</v>
       </c>
     </row>
@@ -20316,7 +20320,7 @@
         <v>52.369475000000001</v>
       </c>
       <c r="I287">
-        <f>1+I286</f>
+        <f t="shared" si="4"/>
         <v>286</v>
       </c>
     </row>
@@ -20346,7 +20350,7 @@
         <v>52.377544</v>
       </c>
       <c r="I288">
-        <f>1+I287</f>
+        <f t="shared" si="4"/>
         <v>287</v>
       </c>
     </row>
@@ -20376,7 +20380,7 @@
         <v>52.386198</v>
       </c>
       <c r="I289">
-        <f>1+I288</f>
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
     </row>
@@ -20406,7 +20410,7 @@
         <v>52.347296</v>
       </c>
       <c r="I290">
-        <f>1+I289</f>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
     </row>
@@ -20436,7 +20440,7 @@
         <v>52.361955999999999</v>
       </c>
       <c r="I291">
-        <f>1+I290</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -20466,7 +20470,7 @@
         <v>52.350225000000002</v>
       </c>
       <c r="I292">
-        <f>1+I291</f>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
     </row>
@@ -20496,7 +20500,7 @@
         <v>52.376576</v>
       </c>
       <c r="I293">
-        <f>1+I292</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
     </row>
@@ -20526,7 +20530,7 @@
         <v>52.344262999999998</v>
       </c>
       <c r="I294">
-        <f>1+I293</f>
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
     </row>
@@ -20556,7 +20560,7 @@
         <v>52.351371</v>
       </c>
       <c r="I295">
-        <f>1+I294</f>
+        <f t="shared" si="4"/>
         <v>294</v>
       </c>
     </row>
@@ -20586,7 +20590,7 @@
         <v>52.382745999999997</v>
       </c>
       <c r="I296">
-        <f>1+I295</f>
+        <f t="shared" si="4"/>
         <v>295</v>
       </c>
     </row>
@@ -20616,7 +20620,7 @@
         <v>52.358995</v>
       </c>
       <c r="I297">
-        <f>1+I296</f>
+        <f t="shared" si="4"/>
         <v>296</v>
       </c>
     </row>
@@ -20646,7 +20650,7 @@
         <v>52.379573999999998</v>
       </c>
       <c r="I298">
-        <f>1+I297</f>
+        <f t="shared" si="4"/>
         <v>297</v>
       </c>
     </row>
@@ -20676,7 +20680,7 @@
         <v>52.356043</v>
       </c>
       <c r="I299">
-        <f>1+I298</f>
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
     </row>
@@ -20706,7 +20710,7 @@
         <v>52.363363</v>
       </c>
       <c r="I300">
-        <f>1+I299</f>
+        <f t="shared" si="4"/>
         <v>299</v>
       </c>
     </row>
@@ -20736,7 +20740,7 @@
         <v>52.360545000000002</v>
       </c>
       <c r="I301">
-        <f>1+I300</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
@@ -20766,7 +20770,7 @@
         <v>52.2923239</v>
       </c>
       <c r="I302">
-        <f>1+I301</f>
+        <f t="shared" si="4"/>
         <v>301</v>
       </c>
     </row>
@@ -20796,7 +20800,7 @@
         <v>52.419502000000001</v>
       </c>
       <c r="I303">
-        <f>1+I302</f>
+        <f t="shared" si="4"/>
         <v>302</v>
       </c>
     </row>
@@ -20826,7 +20830,7 @@
         <v>52.363729999999997</v>
       </c>
       <c r="I304">
-        <f>1+I303</f>
+        <f t="shared" si="4"/>
         <v>303</v>
       </c>
     </row>
@@ -20856,7 +20860,7 @@
         <v>52.363328000000003</v>
       </c>
       <c r="I305">
-        <f>1+I304</f>
+        <f t="shared" si="4"/>
         <v>304</v>
       </c>
     </row>
@@ -20886,7 +20890,7 @@
         <v>52.388122000000003</v>
       </c>
       <c r="I306">
-        <f>1+I305</f>
+        <f t="shared" si="4"/>
         <v>305</v>
       </c>
     </row>
@@ -20916,7 +20920,7 @@
         <v>52.352316999999999</v>
       </c>
       <c r="I307">
-        <f>1+I306</f>
+        <f t="shared" si="4"/>
         <v>306</v>
       </c>
     </row>
@@ -20946,7 +20950,7 @@
         <v>52.318781999999999</v>
       </c>
       <c r="I308">
-        <f>1+I307</f>
+        <f t="shared" si="4"/>
         <v>307</v>
       </c>
     </row>
@@ -20976,7 +20980,7 @@
         <v>52.374336999999997</v>
       </c>
       <c r="I309">
-        <f>1+I308</f>
+        <f t="shared" si="4"/>
         <v>308</v>
       </c>
     </row>
@@ -21006,7 +21010,7 @@
         <v>52.381514000000003</v>
       </c>
       <c r="I310">
-        <f>1+I309</f>
+        <f t="shared" si="4"/>
         <v>309</v>
       </c>
     </row>
@@ -21036,7 +21040,7 @@
         <v>52.374310000000001</v>
       </c>
       <c r="I311">
-        <f>1+I310</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
     </row>
@@ -21066,7 +21070,7 @@
         <v>52.369014999999997</v>
       </c>
       <c r="I312">
-        <f>1+I311</f>
+        <f t="shared" si="4"/>
         <v>311</v>
       </c>
     </row>
@@ -21096,7 +21100,7 @@
         <v>52.373057000000003</v>
       </c>
       <c r="I313">
-        <f>1+I312</f>
+        <f t="shared" si="4"/>
         <v>312</v>
       </c>
     </row>
@@ -21126,7 +21130,7 @@
         <v>52.379711</v>
       </c>
       <c r="I314">
-        <f>1+I313</f>
+        <f t="shared" si="4"/>
         <v>313</v>
       </c>
     </row>
@@ -21156,7 +21160,7 @@
         <v>52.383020999999999</v>
       </c>
       <c r="I315">
-        <f>1+I314</f>
+        <f t="shared" si="4"/>
         <v>314</v>
       </c>
     </row>
@@ -21186,7 +21190,7 @@
         <v>52.365535999999999</v>
       </c>
       <c r="I316">
-        <f>1+I315</f>
+        <f t="shared" si="4"/>
         <v>315</v>
       </c>
     </row>
@@ -21216,7 +21220,7 @@
         <v>52.356369999999998</v>
       </c>
       <c r="I317">
-        <f>1+I316</f>
+        <f t="shared" si="4"/>
         <v>316</v>
       </c>
     </row>
@@ -21246,7 +21250,7 @@
         <v>52.384355999999997</v>
       </c>
       <c r="I318">
-        <f>1+I317</f>
+        <f t="shared" si="4"/>
         <v>317</v>
       </c>
     </row>
@@ -21276,7 +21280,7 @@
         <v>52.351244000000001</v>
       </c>
       <c r="I319">
-        <f>1+I318</f>
+        <f t="shared" si="4"/>
         <v>318</v>
       </c>
     </row>
@@ -21306,7 +21310,7 @@
         <v>52.291803000000002</v>
       </c>
       <c r="I320">
-        <f>1+I319</f>
+        <f t="shared" si="4"/>
         <v>319</v>
       </c>
     </row>
@@ -21336,7 +21340,7 @@
         <v>52.316374000000003</v>
       </c>
       <c r="I321">
-        <f>1+I320</f>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
     </row>
@@ -21366,7 +21370,7 @@
         <v>52.363691000000003</v>
       </c>
       <c r="I322">
-        <f>1+I321</f>
+        <f t="shared" ref="I322:I385" si="5">1+I321</f>
         <v>321</v>
       </c>
     </row>
@@ -21396,7 +21400,7 @@
         <v>52.380747</v>
       </c>
       <c r="I323">
-        <f>1+I322</f>
+        <f t="shared" si="5"/>
         <v>322</v>
       </c>
     </row>
@@ -21426,7 +21430,7 @@
         <v>52.355153000000001</v>
       </c>
       <c r="I324">
-        <f>1+I323</f>
+        <f t="shared" si="5"/>
         <v>323</v>
       </c>
     </row>
@@ -21456,7 +21460,7 @@
         <v>52.353346000000002</v>
       </c>
       <c r="I325">
-        <f>1+I324</f>
+        <f t="shared" si="5"/>
         <v>324</v>
       </c>
     </row>
@@ -21486,7 +21490,7 @@
         <v>52.366928000000001</v>
       </c>
       <c r="I326">
-        <f>1+I325</f>
+        <f t="shared" si="5"/>
         <v>325</v>
       </c>
     </row>
@@ -21516,7 +21520,7 @@
         <v>52.354196999999999</v>
       </c>
       <c r="I327">
-        <f>1+I326</f>
+        <f t="shared" si="5"/>
         <v>326</v>
       </c>
     </row>
@@ -21546,7 +21550,7 @@
         <v>52.299114000000003</v>
       </c>
       <c r="I328">
-        <f>1+I327</f>
+        <f t="shared" si="5"/>
         <v>327</v>
       </c>
     </row>
@@ -21576,7 +21580,7 @@
         <v>52.359243999999997</v>
       </c>
       <c r="I329">
-        <f>1+I328</f>
+        <f t="shared" si="5"/>
         <v>328</v>
       </c>
     </row>
@@ -21606,7 +21610,7 @@
         <v>52.317064000000002</v>
       </c>
       <c r="I330">
-        <f>1+I329</f>
+        <f t="shared" si="5"/>
         <v>329</v>
       </c>
     </row>
@@ -21636,7 +21640,7 @@
         <v>52.319589000000001</v>
       </c>
       <c r="I331">
-        <f>1+I330</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
     </row>
@@ -21666,7 +21670,7 @@
         <v>52.306325999999999</v>
       </c>
       <c r="I332">
-        <f>1+I331</f>
+        <f t="shared" si="5"/>
         <v>331</v>
       </c>
     </row>
@@ -21696,7 +21700,7 @@
         <v>52.353375999999997</v>
       </c>
       <c r="I333">
-        <f>1+I332</f>
+        <f t="shared" si="5"/>
         <v>332</v>
       </c>
     </row>
@@ -21726,7 +21730,7 @@
         <v>52.378625</v>
       </c>
       <c r="I334">
-        <f>1+I333</f>
+        <f t="shared" si="5"/>
         <v>333</v>
       </c>
     </row>
@@ -21756,7 +21760,7 @@
         <v>52.379860000000001</v>
       </c>
       <c r="I335">
-        <f>1+I334</f>
+        <f t="shared" si="5"/>
         <v>334</v>
       </c>
     </row>
@@ -21786,7 +21790,7 @@
         <v>52.378746999999997</v>
       </c>
       <c r="I336">
-        <f>1+I335</f>
+        <f t="shared" si="5"/>
         <v>335</v>
       </c>
     </row>
@@ -21816,7 +21820,7 @@
         <v>52.351081999999998</v>
       </c>
       <c r="I337">
-        <f>1+I336</f>
+        <f t="shared" si="5"/>
         <v>336</v>
       </c>
     </row>
@@ -21846,7 +21850,7 @@
         <v>52.317292000000002</v>
       </c>
       <c r="I338">
-        <f>1+I337</f>
+        <f t="shared" si="5"/>
         <v>337</v>
       </c>
     </row>
@@ -21876,7 +21880,7 @@
         <v>52.414586999999997</v>
       </c>
       <c r="I339">
-        <f>1+I338</f>
+        <f t="shared" si="5"/>
         <v>338</v>
       </c>
     </row>
@@ -21906,7 +21910,7 @@
         <v>52.342942000000001</v>
       </c>
       <c r="I340">
-        <f>1+I339</f>
+        <f t="shared" si="5"/>
         <v>339</v>
       </c>
     </row>
@@ -21936,7 +21940,7 @@
         <v>52.381092000000002</v>
       </c>
       <c r="I341">
-        <f>1+I340</f>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
     </row>
@@ -21966,7 +21970,7 @@
         <v>52.359026</v>
       </c>
       <c r="I342">
-        <f>1+I341</f>
+        <f t="shared" si="5"/>
         <v>341</v>
       </c>
     </row>
@@ -21996,7 +22000,7 @@
         <v>52.367739</v>
       </c>
       <c r="I343">
-        <f>1+I342</f>
+        <f t="shared" si="5"/>
         <v>342</v>
       </c>
     </row>
@@ -22026,7 +22030,7 @@
         <v>52.369014</v>
       </c>
       <c r="I344">
-        <f>1+I343</f>
+        <f t="shared" si="5"/>
         <v>343</v>
       </c>
     </row>
@@ -22056,7 +22060,7 @@
         <v>52.355854000000001</v>
       </c>
       <c r="I345">
-        <f>1+I344</f>
+        <f t="shared" si="5"/>
         <v>344</v>
       </c>
     </row>
@@ -22086,7 +22090,7 @@
         <v>52.352451000000002</v>
       </c>
       <c r="I346">
-        <f>1+I345</f>
+        <f t="shared" si="5"/>
         <v>345</v>
       </c>
     </row>
@@ -22116,7 +22120,7 @@
         <v>52.294299000000002</v>
       </c>
       <c r="I347">
-        <f>1+I346</f>
+        <f t="shared" si="5"/>
         <v>346</v>
       </c>
     </row>
@@ -22146,7 +22150,7 @@
         <v>52.29383</v>
       </c>
       <c r="I348">
-        <f>1+I347</f>
+        <f t="shared" si="5"/>
         <v>347</v>
       </c>
     </row>
@@ -22176,7 +22180,7 @@
         <v>52.354418000000003</v>
       </c>
       <c r="I349">
-        <f>1+I348</f>
+        <f t="shared" si="5"/>
         <v>348</v>
       </c>
     </row>
@@ -22206,7 +22210,7 @@
         <v>52.356709000000002</v>
       </c>
       <c r="I350">
-        <f>1+I349</f>
+        <f t="shared" si="5"/>
         <v>349</v>
       </c>
     </row>
@@ -22236,7 +22240,7 @@
         <v>52.327840999999999</v>
       </c>
       <c r="I351">
-        <f>1+I350</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
     </row>
@@ -22266,7 +22270,7 @@
         <v>52.388468000000003</v>
       </c>
       <c r="I352">
-        <f>1+I351</f>
+        <f t="shared" si="5"/>
         <v>351</v>
       </c>
     </row>
@@ -22296,7 +22300,7 @@
         <v>52.378402000000001</v>
       </c>
       <c r="I353">
-        <f>1+I352</f>
+        <f t="shared" si="5"/>
         <v>352</v>
       </c>
     </row>
@@ -22326,7 +22330,7 @@
         <v>52.387402999999999</v>
       </c>
       <c r="I354">
-        <f>1+I353</f>
+        <f t="shared" si="5"/>
         <v>353</v>
       </c>
     </row>
@@ -22356,7 +22360,7 @@
         <v>52.368555000000001</v>
       </c>
       <c r="I355">
-        <f>1+I354</f>
+        <f t="shared" si="5"/>
         <v>354</v>
       </c>
     </row>
@@ -22386,7 +22390,7 @@
         <v>52.367607</v>
       </c>
       <c r="I356">
-        <f>1+I355</f>
+        <f t="shared" si="5"/>
         <v>355</v>
       </c>
     </row>
@@ -22416,7 +22420,7 @@
         <v>52.360923</v>
       </c>
       <c r="I357">
-        <f>1+I356</f>
+        <f t="shared" si="5"/>
         <v>356</v>
       </c>
     </row>
@@ -22446,7 +22450,7 @@
         <v>52.342210000000001</v>
       </c>
       <c r="I358">
-        <f>1+I357</f>
+        <f t="shared" si="5"/>
         <v>357</v>
       </c>
     </row>
@@ -22476,7 +22480,7 @@
         <v>52.397672</v>
       </c>
       <c r="I359">
-        <f>1+I358</f>
+        <f t="shared" si="5"/>
         <v>358</v>
       </c>
     </row>
@@ -22506,7 +22510,7 @@
         <v>52.373012000000003</v>
       </c>
       <c r="I360">
-        <f>1+I359</f>
+        <f t="shared" si="5"/>
         <v>359</v>
       </c>
     </row>
@@ -22536,7 +22540,7 @@
         <v>52.406914999999998</v>
       </c>
       <c r="I361">
-        <f>1+I360</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
     </row>
@@ -22566,7 +22570,7 @@
         <v>52.385387000000001</v>
       </c>
       <c r="I362">
-        <f>1+I361</f>
+        <f t="shared" si="5"/>
         <v>361</v>
       </c>
     </row>
@@ -22596,7 +22600,7 @@
         <v>52.399475000000002</v>
       </c>
       <c r="I363">
-        <f>1+I362</f>
+        <f t="shared" si="5"/>
         <v>362</v>
       </c>
     </row>
@@ -22626,7 +22630,7 @@
         <v>52.365372000000001</v>
       </c>
       <c r="I364">
-        <f>1+I363</f>
+        <f t="shared" si="5"/>
         <v>363</v>
       </c>
     </row>
@@ -22656,7 +22660,7 @@
         <v>52.384604000000003</v>
       </c>
       <c r="I365">
-        <f>1+I364</f>
+        <f t="shared" si="5"/>
         <v>364</v>
       </c>
     </row>
@@ -22686,7 +22690,7 @@
         <v>52.369650999999998</v>
       </c>
       <c r="I366">
-        <f>1+I365</f>
+        <f t="shared" si="5"/>
         <v>365</v>
       </c>
     </row>
@@ -22716,7 +22720,7 @@
         <v>52.366621000000002</v>
       </c>
       <c r="I367">
-        <f>1+I366</f>
+        <f t="shared" si="5"/>
         <v>366</v>
       </c>
     </row>
@@ -22746,7 +22750,7 @@
         <v>52.381911000000002</v>
       </c>
       <c r="I368">
-        <f>1+I367</f>
+        <f t="shared" si="5"/>
         <v>367</v>
       </c>
     </row>
@@ -22776,7 +22780,7 @@
         <v>52.373345</v>
       </c>
       <c r="I369">
-        <f>1+I368</f>
+        <f t="shared" si="5"/>
         <v>368</v>
       </c>
     </row>
@@ -22806,7 +22810,7 @@
         <v>52.366579999999999</v>
       </c>
       <c r="I370">
-        <f>1+I369</f>
+        <f t="shared" si="5"/>
         <v>369</v>
       </c>
     </row>
@@ -22836,7 +22840,7 @@
         <v>52.388528999999998</v>
       </c>
       <c r="I371">
-        <f>1+I370</f>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
     </row>
@@ -22866,7 +22870,7 @@
         <v>52.357269000000002</v>
       </c>
       <c r="I372">
-        <f>1+I371</f>
+        <f t="shared" si="5"/>
         <v>371</v>
       </c>
     </row>
@@ -22896,7 +22900,7 @@
         <v>52.342663999999999</v>
       </c>
       <c r="I373">
-        <f>1+I372</f>
+        <f t="shared" si="5"/>
         <v>372</v>
       </c>
     </row>
@@ -22926,7 +22930,7 @@
         <v>52.361355000000003</v>
       </c>
       <c r="I374">
-        <f>1+I373</f>
+        <f t="shared" si="5"/>
         <v>373</v>
       </c>
     </row>
@@ -22956,7 +22960,7 @@
         <v>52.372928999999999</v>
       </c>
       <c r="I375">
-        <f>1+I374</f>
+        <f t="shared" si="5"/>
         <v>374</v>
       </c>
     </row>
@@ -22986,7 +22990,7 @@
         <v>52.370632000000001</v>
       </c>
       <c r="I376">
-        <f>1+I375</f>
+        <f t="shared" si="5"/>
         <v>375</v>
       </c>
     </row>
@@ -23016,7 +23020,7 @@
         <v>52.364831000000002</v>
       </c>
       <c r="I377">
-        <f>1+I376</f>
+        <f t="shared" si="5"/>
         <v>376</v>
       </c>
     </row>
@@ -23046,7 +23050,7 @@
         <v>52.370007000000001</v>
       </c>
       <c r="I378">
-        <f>1+I377</f>
+        <f t="shared" si="5"/>
         <v>377</v>
       </c>
     </row>
@@ -23076,7 +23080,7 @@
         <v>52.365121000000002</v>
       </c>
       <c r="I379">
-        <f>1+I378</f>
+        <f t="shared" si="5"/>
         <v>378</v>
       </c>
     </row>
@@ -23106,7 +23110,7 @@
         <v>52.406722000000002</v>
       </c>
       <c r="I380">
-        <f>1+I379</f>
+        <f t="shared" si="5"/>
         <v>379</v>
       </c>
     </row>
@@ -23136,7 +23140,7 @@
         <v>52.395229</v>
       </c>
       <c r="I381">
-        <f>1+I380</f>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
     </row>
@@ -23166,7 +23170,7 @@
         <v>52.355604999999997</v>
       </c>
       <c r="I382">
-        <f>1+I381</f>
+        <f t="shared" si="5"/>
         <v>381</v>
       </c>
     </row>
@@ -23196,7 +23200,7 @@
         <v>52.381995000000003</v>
       </c>
       <c r="I383">
-        <f>1+I382</f>
+        <f t="shared" si="5"/>
         <v>382</v>
       </c>
     </row>
@@ -23226,7 +23230,7 @@
         <v>52.363762999999999</v>
       </c>
       <c r="I384">
-        <f>1+I383</f>
+        <f t="shared" si="5"/>
         <v>383</v>
       </c>
     </row>
@@ -23256,7 +23260,7 @@
         <v>52.395417000000002</v>
       </c>
       <c r="I385">
-        <f>1+I384</f>
+        <f t="shared" si="5"/>
         <v>384</v>
       </c>
     </row>
@@ -23286,7 +23290,7 @@
         <v>52.394072999999999</v>
       </c>
       <c r="I386">
-        <f>1+I385</f>
+        <f t="shared" ref="I386:I449" si="6">1+I385</f>
         <v>385</v>
       </c>
     </row>
@@ -23316,7 +23320,7 @@
         <v>52.393622000000001</v>
       </c>
       <c r="I387">
-        <f>1+I386</f>
+        <f t="shared" si="6"/>
         <v>386</v>
       </c>
     </row>
@@ -23346,7 +23350,7 @@
         <v>52.403129999999997</v>
       </c>
       <c r="I388">
-        <f>1+I387</f>
+        <f t="shared" si="6"/>
         <v>387</v>
       </c>
     </row>
@@ -23376,7 +23380,7 @@
         <v>52.392857999999997</v>
       </c>
       <c r="I389">
-        <f>1+I388</f>
+        <f t="shared" si="6"/>
         <v>388</v>
       </c>
     </row>
@@ -23406,7 +23410,7 @@
         <v>52.375473999999997</v>
       </c>
       <c r="I390">
-        <f>1+I389</f>
+        <f t="shared" si="6"/>
         <v>389</v>
       </c>
     </row>
@@ -23436,7 +23440,7 @@
         <v>52.368574000000002</v>
       </c>
       <c r="I391">
-        <f>1+I390</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
     </row>
@@ -23466,7 +23470,7 @@
         <v>52.349933</v>
       </c>
       <c r="I392">
-        <f>1+I391</f>
+        <f t="shared" si="6"/>
         <v>391</v>
       </c>
     </row>
@@ -23496,7 +23500,7 @@
         <v>52.369540000000001</v>
       </c>
       <c r="I393">
-        <f>1+I392</f>
+        <f t="shared" si="6"/>
         <v>392</v>
       </c>
     </row>
@@ -23526,7 +23530,7 @@
         <v>52.321871000000002</v>
       </c>
       <c r="I394">
-        <f>1+I393</f>
+        <f t="shared" si="6"/>
         <v>393</v>
       </c>
     </row>
@@ -23556,7 +23560,7 @@
         <v>52.321871000000002</v>
       </c>
       <c r="I395">
-        <f>1+I394</f>
+        <f t="shared" si="6"/>
         <v>394</v>
       </c>
     </row>
@@ -23586,7 +23590,7 @@
         <v>52.393956000000003</v>
       </c>
       <c r="I396">
-        <f>1+I395</f>
+        <f t="shared" si="6"/>
         <v>395</v>
       </c>
     </row>
@@ -23616,7 +23620,7 @@
         <v>52.393821000000003</v>
       </c>
       <c r="I397">
-        <f>1+I396</f>
+        <f t="shared" si="6"/>
         <v>396</v>
       </c>
     </row>
@@ -23646,7 +23650,7 @@
         <v>52.394723999999997</v>
       </c>
       <c r="I398">
-        <f>1+I397</f>
+        <f t="shared" si="6"/>
         <v>397</v>
       </c>
     </row>
@@ -23676,7 +23680,7 @@
         <v>52.364910999999999</v>
       </c>
       <c r="I399">
-        <f>1+I398</f>
+        <f t="shared" si="6"/>
         <v>398</v>
       </c>
     </row>
@@ -23706,7 +23710,7 @@
         <v>52.372067999999999</v>
       </c>
       <c r="I400">
-        <f>1+I399</f>
+        <f t="shared" si="6"/>
         <v>399</v>
       </c>
     </row>
@@ -23736,7 +23740,7 @@
         <v>52.372964000000003</v>
       </c>
       <c r="I401">
-        <f>1+I400</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
@@ -23766,7 +23770,7 @@
         <v>52.372954999999997</v>
       </c>
       <c r="I402">
-        <f>1+I401</f>
+        <f t="shared" si="6"/>
         <v>401</v>
       </c>
     </row>
@@ -23796,7 +23800,7 @@
         <v>52.331918999999999</v>
       </c>
       <c r="I403">
-        <f>1+I402</f>
+        <f t="shared" si="6"/>
         <v>402</v>
       </c>
     </row>
@@ -23826,7 +23830,7 @@
         <v>52.372067000000001</v>
       </c>
       <c r="I404">
-        <f>1+I403</f>
+        <f t="shared" si="6"/>
         <v>403</v>
       </c>
     </row>
@@ -23856,7 +23860,7 @@
         <v>52.350070000000002</v>
       </c>
       <c r="I405">
-        <f>1+I404</f>
+        <f t="shared" si="6"/>
         <v>404</v>
       </c>
     </row>
@@ -23886,7 +23890,7 @@
         <v>52.382249000000002</v>
       </c>
       <c r="I406">
-        <f>1+I405</f>
+        <f t="shared" si="6"/>
         <v>405</v>
       </c>
     </row>
@@ -23916,7 +23920,7 @@
         <v>52.384104999999998</v>
       </c>
       <c r="I407">
-        <f>1+I406</f>
+        <f t="shared" si="6"/>
         <v>406</v>
       </c>
     </row>
@@ -23946,7 +23950,7 @@
         <v>52.376657999999999</v>
       </c>
       <c r="I408">
-        <f>1+I407</f>
+        <f t="shared" si="6"/>
         <v>407</v>
       </c>
     </row>
@@ -23976,7 +23980,7 @@
         <v>52.342458000000001</v>
       </c>
       <c r="I409">
-        <f>1+I408</f>
+        <f t="shared" si="6"/>
         <v>408</v>
       </c>
     </row>
@@ -24006,7 +24010,7 @@
         <v>52.373106</v>
       </c>
       <c r="I410">
-        <f>1+I409</f>
+        <f t="shared" si="6"/>
         <v>409</v>
       </c>
     </row>
@@ -24036,7 +24040,7 @@
         <v>52.379828000000003</v>
       </c>
       <c r="I411">
-        <f>1+I410</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
     </row>
@@ -24066,7 +24070,7 @@
         <v>52.351449000000002</v>
       </c>
       <c r="I412">
-        <f>1+I411</f>
+        <f t="shared" si="6"/>
         <v>411</v>
       </c>
     </row>
@@ -24096,7 +24100,7 @@
         <v>52.357443000000004</v>
       </c>
       <c r="I413">
-        <f>1+I412</f>
+        <f t="shared" si="6"/>
         <v>412</v>
       </c>
     </row>
@@ -24126,7 +24130,7 @@
         <v>52.355493000000003</v>
       </c>
       <c r="I414">
-        <f>1+I413</f>
+        <f t="shared" si="6"/>
         <v>413</v>
       </c>
     </row>
@@ -24156,7 +24160,7 @@
         <v>52.350513100000001</v>
       </c>
       <c r="I415">
-        <f>1+I414</f>
+        <f t="shared" si="6"/>
         <v>414</v>
       </c>
     </row>
@@ -24186,7 +24190,7 @@
         <v>52.350513100000001</v>
       </c>
       <c r="I416">
-        <f>1+I415</f>
+        <f t="shared" si="6"/>
         <v>415</v>
       </c>
     </row>
@@ -24216,7 +24220,7 @@
         <v>52.343893000000001</v>
       </c>
       <c r="I417">
-        <f>1+I416</f>
+        <f t="shared" si="6"/>
         <v>416</v>
       </c>
     </row>
@@ -24246,7 +24250,7 @@
         <v>52.351934999999997</v>
       </c>
       <c r="I418">
-        <f>1+I417</f>
+        <f t="shared" si="6"/>
         <v>417</v>
       </c>
     </row>
@@ -24276,7 +24280,7 @@
         <v>52.332273000000001</v>
       </c>
       <c r="I419">
-        <f>1+I418</f>
+        <f t="shared" si="6"/>
         <v>418</v>
       </c>
     </row>
@@ -24306,7 +24310,7 @@
         <v>52.362693</v>
       </c>
       <c r="I420">
-        <f>1+I419</f>
+        <f t="shared" si="6"/>
         <v>419</v>
       </c>
     </row>
@@ -24336,7 +24340,7 @@
         <v>52.372067000000001</v>
       </c>
       <c r="I421">
-        <f>1+I420</f>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
     </row>
@@ -24366,7 +24370,7 @@
         <v>52.413733999999998</v>
       </c>
       <c r="I422">
-        <f>1+I421</f>
+        <f t="shared" si="6"/>
         <v>421</v>
       </c>
     </row>
@@ -24396,7 +24400,7 @@
         <v>52.342112</v>
       </c>
       <c r="I423">
-        <f>1+I422</f>
+        <f t="shared" si="6"/>
         <v>422</v>
       </c>
     </row>
@@ -24426,7 +24430,7 @@
         <v>52.405450999999999</v>
       </c>
       <c r="I424">
-        <f>1+I423</f>
+        <f t="shared" si="6"/>
         <v>423</v>
       </c>
     </row>
@@ -24456,7 +24460,7 @@
         <v>52.350006999999998</v>
       </c>
       <c r="I425">
-        <f>1+I424</f>
+        <f t="shared" si="6"/>
         <v>424</v>
       </c>
     </row>
@@ -24486,7 +24490,7 @@
         <v>52.363903999999998</v>
       </c>
       <c r="I426">
-        <f>1+I425</f>
+        <f t="shared" si="6"/>
         <v>425</v>
       </c>
     </row>
@@ -24516,7 +24520,7 @@
         <v>52.330956</v>
       </c>
       <c r="I427">
-        <f>1+I426</f>
+        <f t="shared" si="6"/>
         <v>426</v>
       </c>
     </row>
@@ -24546,7 +24550,7 @@
         <v>52.379295999999997</v>
       </c>
       <c r="I428">
-        <f>1+I427</f>
+        <f t="shared" si="6"/>
         <v>427</v>
       </c>
     </row>
@@ -24576,7 +24580,7 @@
         <v>52.343328</v>
       </c>
       <c r="I429">
-        <f>1+I428</f>
+        <f t="shared" si="6"/>
         <v>428</v>
       </c>
     </row>
@@ -24606,7 +24610,7 @@
         <v>52.371205000000003</v>
       </c>
       <c r="I430">
-        <f>1+I429</f>
+        <f t="shared" si="6"/>
         <v>429</v>
       </c>
     </row>
@@ -24636,7 +24640,7 @@
         <v>52.330329999999996</v>
       </c>
       <c r="I431">
-        <f>1+I430</f>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
     </row>
@@ -24666,7 +24670,7 @@
         <v>52.370303</v>
       </c>
       <c r="I432">
-        <f>1+I431</f>
+        <f t="shared" si="6"/>
         <v>431</v>
       </c>
     </row>
@@ -24696,7 +24700,7 @@
         <v>52.372670999999997</v>
       </c>
       <c r="I433">
-        <f>1+I432</f>
+        <f t="shared" si="6"/>
         <v>432</v>
       </c>
     </row>
@@ -24726,7 +24730,7 @@
         <v>52.379863</v>
       </c>
       <c r="I434">
-        <f>1+I433</f>
+        <f t="shared" si="6"/>
         <v>433</v>
       </c>
     </row>
@@ -24756,7 +24760,7 @@
         <v>52.371040999999998</v>
       </c>
       <c r="I435">
-        <f>1+I434</f>
+        <f t="shared" si="6"/>
         <v>434</v>
       </c>
     </row>
@@ -24786,7 +24790,7 @@
         <v>52.365991000000001</v>
       </c>
       <c r="I436">
-        <f>1+I435</f>
+        <f t="shared" si="6"/>
         <v>435</v>
       </c>
     </row>
@@ -24816,7 +24820,7 @@
         <v>52.353583999999998</v>
       </c>
       <c r="I437">
-        <f>1+I436</f>
+        <f t="shared" si="6"/>
         <v>436</v>
       </c>
     </row>
@@ -24846,7 +24850,7 @@
         <v>52.354008</v>
       </c>
       <c r="I438">
-        <f>1+I437</f>
+        <f t="shared" si="6"/>
         <v>437</v>
       </c>
     </row>
@@ -24876,7 +24880,7 @@
         <v>52.357393000000002</v>
       </c>
       <c r="I439">
-        <f>1+I438</f>
+        <f t="shared" si="6"/>
         <v>438</v>
       </c>
     </row>
@@ -24906,7 +24910,7 @@
         <v>52.357436999999997</v>
       </c>
       <c r="I440">
-        <f>1+I439</f>
+        <f t="shared" si="6"/>
         <v>439</v>
       </c>
     </row>
@@ -24936,7 +24940,7 @@
         <v>52.353861000000002</v>
       </c>
       <c r="I441">
-        <f>1+I440</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
     </row>
@@ -24966,7 +24970,7 @@
         <v>52.382252999999999</v>
       </c>
       <c r="I442">
-        <f>1+I441</f>
+        <f t="shared" si="6"/>
         <v>441</v>
       </c>
     </row>
@@ -24996,7 +25000,7 @@
         <v>52.363886999999998</v>
       </c>
       <c r="I443">
-        <f>1+I442</f>
+        <f t="shared" si="6"/>
         <v>442</v>
       </c>
     </row>
@@ -25026,7 +25030,7 @@
         <v>52.325783000000001</v>
       </c>
       <c r="I444">
-        <f>1+I443</f>
+        <f t="shared" si="6"/>
         <v>443</v>
       </c>
     </row>
@@ -25056,7 +25060,7 @@
         <v>52.332237999999997</v>
       </c>
       <c r="I445">
-        <f>1+I444</f>
+        <f t="shared" si="6"/>
         <v>444</v>
       </c>
     </row>
@@ -25086,7 +25090,7 @@
         <v>52.359282999999998</v>
       </c>
       <c r="I446">
-        <f>1+I445</f>
+        <f t="shared" si="6"/>
         <v>445</v>
       </c>
     </row>
@@ -25116,7 +25120,7 @@
         <v>52.343015999999999</v>
       </c>
       <c r="I447">
-        <f>1+I446</f>
+        <f t="shared" si="6"/>
         <v>446</v>
       </c>
     </row>
@@ -25146,7 +25150,7 @@
         <v>52.366728999999999</v>
       </c>
       <c r="I448">
-        <f>1+I447</f>
+        <f t="shared" si="6"/>
         <v>447</v>
       </c>
     </row>
@@ -25176,7 +25180,7 @@
         <v>52.357399999999998</v>
       </c>
       <c r="I449">
-        <f>1+I448</f>
+        <f t="shared" si="6"/>
         <v>448</v>
       </c>
     </row>
@@ -25206,7 +25210,7 @@
         <v>52.389623</v>
       </c>
       <c r="I450">
-        <f>1+I449</f>
+        <f t="shared" ref="I450:I513" si="7">1+I449</f>
         <v>449</v>
       </c>
     </row>
@@ -25236,7 +25240,7 @@
         <v>52.291671999999998</v>
       </c>
       <c r="I451">
-        <f>1+I450</f>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
     </row>
@@ -25266,7 +25270,7 @@
         <v>52.357419</v>
       </c>
       <c r="I452">
-        <f>1+I451</f>
+        <f t="shared" si="7"/>
         <v>451</v>
       </c>
     </row>
@@ -25296,7 +25300,7 @@
         <v>52.354374999999997</v>
       </c>
       <c r="I453">
-        <f>1+I452</f>
+        <f t="shared" si="7"/>
         <v>452</v>
       </c>
     </row>
@@ -25326,7 +25330,7 @@
         <v>52.364372000000003</v>
       </c>
       <c r="I454">
-        <f>1+I453</f>
+        <f t="shared" si="7"/>
         <v>453</v>
       </c>
     </row>
@@ -25356,7 +25360,7 @@
         <v>52.364334999999997</v>
       </c>
       <c r="I455">
-        <f>1+I454</f>
+        <f t="shared" si="7"/>
         <v>454</v>
       </c>
     </row>
@@ -25386,7 +25390,7 @@
         <v>52.377859999999998</v>
       </c>
       <c r="I456">
-        <f>1+I455</f>
+        <f t="shared" si="7"/>
         <v>455</v>
       </c>
     </row>
@@ -25416,7 +25420,7 @@
         <v>52.341296</v>
       </c>
       <c r="I457">
-        <f>1+I456</f>
+        <f t="shared" si="7"/>
         <v>456</v>
       </c>
     </row>
@@ -25446,7 +25450,7 @@
         <v>52.374093000000002</v>
       </c>
       <c r="I458">
-        <f>1+I457</f>
+        <f t="shared" si="7"/>
         <v>457</v>
       </c>
     </row>
@@ -25476,7 +25480,7 @@
         <v>52.381478999999999</v>
       </c>
       <c r="I459">
-        <f>1+I458</f>
+        <f t="shared" si="7"/>
         <v>458</v>
       </c>
     </row>
@@ -25506,7 +25510,7 @@
         <v>52.370289</v>
       </c>
       <c r="I460">
-        <f>1+I459</f>
+        <f t="shared" si="7"/>
         <v>459</v>
       </c>
     </row>
@@ -25536,7 +25540,7 @@
         <v>52.316701999999999</v>
       </c>
       <c r="I461">
-        <f>1+I460</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
     </row>
@@ -25566,7 +25570,7 @@
         <v>52.2923239</v>
       </c>
       <c r="I462">
-        <f>1+I461</f>
+        <f t="shared" si="7"/>
         <v>461</v>
       </c>
     </row>
@@ -25596,7 +25600,7 @@
         <v>52.299292999999999</v>
       </c>
       <c r="I463">
-        <f>1+I462</f>
+        <f t="shared" si="7"/>
         <v>462</v>
       </c>
     </row>
@@ -25626,7 +25630,7 @@
         <v>52.403807999999998</v>
       </c>
       <c r="I464">
-        <f>1+I463</f>
+        <f t="shared" si="7"/>
         <v>463</v>
       </c>
     </row>
@@ -25656,7 +25660,7 @@
         <v>52.395676999999999</v>
       </c>
       <c r="I465">
-        <f>1+I464</f>
+        <f t="shared" si="7"/>
         <v>464</v>
       </c>
     </row>
@@ -25686,7 +25690,7 @@
         <v>52.363613999999998</v>
       </c>
       <c r="I466">
-        <f>1+I465</f>
+        <f t="shared" si="7"/>
         <v>465</v>
       </c>
     </row>
@@ -25716,7 +25720,7 @@
         <v>52.371372999999998</v>
       </c>
       <c r="I467">
-        <f>1+I466</f>
+        <f t="shared" si="7"/>
         <v>466</v>
       </c>
     </row>
@@ -25746,7 +25750,7 @@
         <v>52.344642999999998</v>
       </c>
       <c r="I468">
-        <f>1+I467</f>
+        <f t="shared" si="7"/>
         <v>467</v>
       </c>
     </row>
@@ -25776,7 +25780,7 @@
         <v>52.399557000000001</v>
       </c>
       <c r="I469">
-        <f>1+I468</f>
+        <f t="shared" si="7"/>
         <v>468</v>
       </c>
     </row>
@@ -25806,7 +25810,7 @@
         <v>52.400570999999999</v>
       </c>
       <c r="I470">
-        <f>1+I469</f>
+        <f t="shared" si="7"/>
         <v>469</v>
       </c>
     </row>
@@ -25836,7 +25840,7 @@
         <v>52.297849999999997</v>
       </c>
       <c r="I471">
-        <f>1+I470</f>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
     </row>
@@ -25866,7 +25870,7 @@
         <v>52.356341999999998</v>
       </c>
       <c r="I472">
-        <f>1+I471</f>
+        <f t="shared" si="7"/>
         <v>471</v>
       </c>
     </row>
@@ -25896,7 +25900,7 @@
         <v>52.293948</v>
       </c>
       <c r="I473">
-        <f>1+I472</f>
+        <f t="shared" si="7"/>
         <v>472</v>
       </c>
     </row>
@@ -25926,7 +25930,7 @@
         <v>52.405783</v>
       </c>
       <c r="I474">
-        <f>1+I473</f>
+        <f t="shared" si="7"/>
         <v>473</v>
       </c>
     </row>
@@ -25956,7 +25960,7 @@
         <v>52.334685999999998</v>
       </c>
       <c r="I475">
-        <f>1+I474</f>
+        <f t="shared" si="7"/>
         <v>474</v>
       </c>
     </row>
@@ -25986,7 +25990,7 @@
         <v>52.383180000000003</v>
       </c>
       <c r="I476">
-        <f>1+I475</f>
+        <f t="shared" si="7"/>
         <v>475</v>
       </c>
     </row>
@@ -26016,7 +26020,7 @@
         <v>52.365456999999999</v>
       </c>
       <c r="I477">
-        <f>1+I476</f>
+        <f t="shared" si="7"/>
         <v>476</v>
       </c>
     </row>
@@ -26046,7 +26050,7 @@
         <v>52.343221</v>
       </c>
       <c r="I478">
-        <f>1+I477</f>
+        <f t="shared" si="7"/>
         <v>477</v>
       </c>
     </row>
@@ -26076,7 +26080,7 @@
         <v>52.377422000000003</v>
       </c>
       <c r="I479">
-        <f>1+I478</f>
+        <f t="shared" si="7"/>
         <v>478</v>
       </c>
     </row>
@@ -26106,7 +26110,7 @@
         <v>52.360698999999997</v>
       </c>
       <c r="I480">
-        <f>1+I479</f>
+        <f t="shared" si="7"/>
         <v>479</v>
       </c>
     </row>
@@ -26136,7 +26140,7 @@
         <v>52.399251999999997</v>
       </c>
       <c r="I481">
-        <f>1+I480</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
     </row>
@@ -26166,7 +26170,7 @@
         <v>52.321173999999999</v>
       </c>
       <c r="I482">
-        <f>1+I481</f>
+        <f t="shared" si="7"/>
         <v>481</v>
       </c>
     </row>
@@ -26196,7 +26200,7 @@
         <v>52.398319999999998</v>
       </c>
       <c r="I483">
-        <f>1+I482</f>
+        <f t="shared" si="7"/>
         <v>482</v>
       </c>
     </row>
@@ -26226,7 +26230,7 @@
         <v>52.403049000000003</v>
       </c>
       <c r="I484">
-        <f>1+I483</f>
+        <f t="shared" si="7"/>
         <v>483</v>
       </c>
     </row>
@@ -26256,7 +26260,7 @@
         <v>52.402265999999997</v>
       </c>
       <c r="I485">
-        <f>1+I484</f>
+        <f t="shared" si="7"/>
         <v>484</v>
       </c>
     </row>
@@ -26286,7 +26290,7 @@
         <v>52.308382999999999</v>
       </c>
       <c r="I486">
-        <f>1+I485</f>
+        <f t="shared" si="7"/>
         <v>485</v>
       </c>
     </row>
@@ -26316,7 +26320,7 @@
         <v>52.419916000000001</v>
       </c>
       <c r="I487">
-        <f>1+I486</f>
+        <f t="shared" si="7"/>
         <v>486</v>
       </c>
     </row>
@@ -26346,7 +26350,7 @@
         <v>52.370995000000001</v>
       </c>
       <c r="I488">
-        <f>1+I487</f>
+        <f t="shared" si="7"/>
         <v>487</v>
       </c>
     </row>
@@ -26376,7 +26380,7 @@
         <v>52.365003000000002</v>
       </c>
       <c r="I489">
-        <f>1+I488</f>
+        <f t="shared" si="7"/>
         <v>488</v>
       </c>
     </row>
@@ -26406,7 +26410,7 @@
         <v>52.366168000000002</v>
       </c>
       <c r="I490">
-        <f>1+I489</f>
+        <f t="shared" si="7"/>
         <v>489</v>
       </c>
     </row>
@@ -26436,7 +26440,7 @@
         <v>52.354968</v>
       </c>
       <c r="I491">
-        <f>1+I490</f>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
     </row>
@@ -26466,7 +26470,7 @@
         <v>52.356532000000001</v>
       </c>
       <c r="I492">
-        <f>1+I491</f>
+        <f t="shared" si="7"/>
         <v>491</v>
       </c>
     </row>
@@ -26496,7 +26500,7 @@
         <v>52.352448000000003</v>
       </c>
       <c r="I493">
-        <f>1+I492</f>
+        <f t="shared" si="7"/>
         <v>492</v>
       </c>
     </row>
@@ -26526,7 +26530,7 @@
         <v>52.349876000000002</v>
       </c>
       <c r="I494">
-        <f>1+I493</f>
+        <f t="shared" si="7"/>
         <v>493</v>
       </c>
     </row>
@@ -26556,7 +26560,7 @@
         <v>52.382381000000002</v>
       </c>
       <c r="I495">
-        <f>1+I494</f>
+        <f t="shared" si="7"/>
         <v>494</v>
       </c>
     </row>
@@ -26586,7 +26590,7 @@
         <v>52.393214999999998</v>
       </c>
       <c r="I496">
-        <f>1+I495</f>
+        <f t="shared" si="7"/>
         <v>495</v>
       </c>
     </row>
@@ -26616,7 +26620,7 @@
         <v>52.381864</v>
       </c>
       <c r="I497">
-        <f>1+I496</f>
+        <f t="shared" si="7"/>
         <v>496</v>
       </c>
     </row>
@@ -26646,7 +26650,7 @@
         <v>52.410584999999998</v>
       </c>
       <c r="I498">
-        <f>1+I497</f>
+        <f t="shared" si="7"/>
         <v>497</v>
       </c>
     </row>
@@ -26676,7 +26680,7 @@
         <v>52.360697000000002</v>
       </c>
       <c r="I499">
-        <f>1+I498</f>
+        <f t="shared" si="7"/>
         <v>498</v>
       </c>
     </row>
@@ -26706,7 +26710,7 @@
         <v>52.373126999999997</v>
       </c>
       <c r="I500">
-        <f>1+I499</f>
+        <f t="shared" si="7"/>
         <v>499</v>
       </c>
     </row>
@@ -26736,7 +26740,7 @@
         <v>52.377347</v>
       </c>
       <c r="I501">
-        <f>1+I500</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
     </row>
@@ -26766,7 +26770,7 @@
         <v>52.367982300000001</v>
       </c>
       <c r="I502">
-        <f>1+I501</f>
+        <f t="shared" si="7"/>
         <v>501</v>
       </c>
     </row>
@@ -26796,7 +26800,7 @@
         <v>52.382434000000003</v>
       </c>
       <c r="I503">
-        <f>1+I502</f>
+        <f t="shared" si="7"/>
         <v>502</v>
       </c>
     </row>
@@ -26826,7 +26830,7 @@
         <v>52.361652999999997</v>
       </c>
       <c r="I504">
-        <f>1+I503</f>
+        <f t="shared" si="7"/>
         <v>503</v>
       </c>
     </row>
@@ -26856,7 +26860,7 @@
         <v>52.361640999999999</v>
       </c>
       <c r="I505">
-        <f>1+I504</f>
+        <f t="shared" si="7"/>
         <v>504</v>
       </c>
     </row>
@@ -26886,7 +26890,7 @@
         <v>52.362205000000003</v>
       </c>
       <c r="I506">
-        <f>1+I505</f>
+        <f t="shared" si="7"/>
         <v>505</v>
       </c>
     </row>
@@ -26916,7 +26920,7 @@
         <v>52.380051999999999</v>
       </c>
       <c r="I507">
-        <f>1+I506</f>
+        <f t="shared" si="7"/>
         <v>506</v>
       </c>
     </row>
@@ -26946,7 +26950,7 @@
         <v>52.359423999999997</v>
       </c>
       <c r="I508">
-        <f>1+I507</f>
+        <f t="shared" si="7"/>
         <v>507</v>
       </c>
     </row>
@@ -26976,7 +26980,7 @@
         <v>52.359451</v>
       </c>
       <c r="I509">
-        <f>1+I508</f>
+        <f t="shared" si="7"/>
         <v>508</v>
       </c>
     </row>
@@ -27006,7 +27010,7 @@
         <v>52.377442000000002</v>
       </c>
       <c r="I510">
-        <f>1+I509</f>
+        <f t="shared" si="7"/>
         <v>509</v>
       </c>
     </row>
@@ -27036,7 +27040,7 @@
         <v>52.367502000000002</v>
       </c>
       <c r="I511">
-        <f>1+I510</f>
+        <f t="shared" si="7"/>
         <v>510</v>
       </c>
     </row>
@@ -27066,7 +27070,7 @@
         <v>52.363883000000001</v>
       </c>
       <c r="I512">
-        <f>1+I511</f>
+        <f t="shared" si="7"/>
         <v>511</v>
       </c>
     </row>
@@ -27096,7 +27100,7 @@
         <v>52.361963000000003</v>
       </c>
       <c r="I513">
-        <f>1+I512</f>
+        <f t="shared" si="7"/>
         <v>512</v>
       </c>
     </row>
@@ -27126,7 +27130,7 @@
         <v>52.377741999999998</v>
       </c>
       <c r="I514">
-        <f>1+I513</f>
+        <f t="shared" ref="I514:I577" si="8">1+I513</f>
         <v>513</v>
       </c>
     </row>
@@ -27156,7 +27160,7 @@
         <v>52.323982999999998</v>
       </c>
       <c r="I515">
-        <f>1+I514</f>
+        <f t="shared" si="8"/>
         <v>514</v>
       </c>
     </row>
@@ -27186,7 +27190,7 @@
         <v>52.423543000000002</v>
       </c>
       <c r="I516">
-        <f>1+I515</f>
+        <f t="shared" si="8"/>
         <v>515</v>
       </c>
     </row>
@@ -27216,7 +27220,7 @@
         <v>52.409970000000001</v>
       </c>
       <c r="I517">
-        <f>1+I516</f>
+        <f t="shared" si="8"/>
         <v>516</v>
       </c>
     </row>
@@ -27246,7 +27250,7 @@
         <v>52.362692000000003</v>
       </c>
       <c r="I518">
-        <f>1+I517</f>
+        <f t="shared" si="8"/>
         <v>517</v>
       </c>
     </row>
@@ -27276,7 +27280,7 @@
         <v>52.349139000000001</v>
       </c>
       <c r="I519">
-        <f>1+I518</f>
+        <f t="shared" si="8"/>
         <v>518</v>
       </c>
     </row>
@@ -27306,7 +27310,7 @@
         <v>52.376908999999998</v>
       </c>
       <c r="I520">
-        <f>1+I519</f>
+        <f t="shared" si="8"/>
         <v>519</v>
       </c>
     </row>
@@ -27336,7 +27340,7 @@
         <v>52.365141000000001</v>
       </c>
       <c r="I521">
-        <f>1+I520</f>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
     </row>
@@ -27366,7 +27370,7 @@
         <v>52.364353000000001</v>
       </c>
       <c r="I522">
-        <f>1+I521</f>
+        <f t="shared" si="8"/>
         <v>521</v>
       </c>
     </row>
@@ -27396,7 +27400,7 @@
         <v>52.351528000000002</v>
       </c>
       <c r="I523">
-        <f>1+I522</f>
+        <f t="shared" si="8"/>
         <v>522</v>
       </c>
     </row>
@@ -27426,7 +27430,7 @@
         <v>52.345979</v>
       </c>
       <c r="I524">
-        <f>1+I523</f>
+        <f t="shared" si="8"/>
         <v>523</v>
       </c>
     </row>
@@ -27456,7 +27460,7 @@
         <v>52.299712</v>
       </c>
       <c r="I525">
-        <f>1+I524</f>
+        <f t="shared" si="8"/>
         <v>524</v>
       </c>
     </row>
@@ -27486,7 +27490,7 @@
         <v>52.316741999999998</v>
       </c>
       <c r="I526">
-        <f>1+I525</f>
+        <f t="shared" si="8"/>
         <v>525</v>
       </c>
     </row>
@@ -27516,7 +27520,7 @@
         <v>52.374704999999999</v>
       </c>
       <c r="I527">
-        <f>1+I526</f>
+        <f t="shared" si="8"/>
         <v>526</v>
       </c>
     </row>
@@ -27546,7 +27550,7 @@
         <v>52.358696000000002</v>
       </c>
       <c r="I528">
-        <f>1+I527</f>
+        <f t="shared" si="8"/>
         <v>527</v>
       </c>
     </row>
@@ -27576,7 +27580,7 @@
         <v>52.371197000000002</v>
       </c>
       <c r="I529">
-        <f>1+I528</f>
+        <f t="shared" si="8"/>
         <v>528</v>
       </c>
     </row>
@@ -27606,7 +27610,7 @@
         <v>52.349856000000003</v>
       </c>
       <c r="I530">
-        <f>1+I529</f>
+        <f t="shared" si="8"/>
         <v>529</v>
       </c>
     </row>
@@ -27636,7 +27640,7 @@
         <v>52.389871999999997</v>
       </c>
       <c r="I531">
-        <f>1+I530</f>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
     </row>
@@ -27666,7 +27670,7 @@
         <v>52.386904000000001</v>
       </c>
       <c r="I532">
-        <f>1+I531</f>
+        <f t="shared" si="8"/>
         <v>531</v>
       </c>
     </row>
@@ -27696,7 +27700,7 @@
         <v>52.380687000000002</v>
       </c>
       <c r="I533">
-        <f>1+I532</f>
+        <f t="shared" si="8"/>
         <v>532</v>
       </c>
     </row>
@@ -27726,7 +27730,7 @@
         <v>52.378055000000003</v>
       </c>
       <c r="I534">
-        <f>1+I533</f>
+        <f t="shared" si="8"/>
         <v>533</v>
       </c>
     </row>
@@ -27756,7 +27760,7 @@
         <v>52.361418</v>
       </c>
       <c r="I535">
-        <f>1+I534</f>
+        <f t="shared" si="8"/>
         <v>534</v>
       </c>
     </row>
@@ -27786,7 +27790,7 @@
         <v>52.348467999999997</v>
       </c>
       <c r="I536">
-        <f>1+I535</f>
+        <f t="shared" si="8"/>
         <v>535</v>
       </c>
     </row>
@@ -27816,7 +27820,7 @@
         <v>52.313749000000001</v>
       </c>
       <c r="I537">
-        <f>1+I536</f>
+        <f t="shared" si="8"/>
         <v>536</v>
       </c>
     </row>
@@ -27846,7 +27850,7 @@
         <v>52.294198000000002</v>
       </c>
       <c r="I538">
-        <f>1+I537</f>
+        <f t="shared" si="8"/>
         <v>537</v>
       </c>
     </row>
@@ -27876,7 +27880,7 @@
         <v>52.300655999999996</v>
       </c>
       <c r="I539">
-        <f>1+I538</f>
+        <f t="shared" si="8"/>
         <v>538</v>
       </c>
     </row>
@@ -27906,7 +27910,7 @@
         <v>52.401615999999997</v>
       </c>
       <c r="I540">
-        <f>1+I539</f>
+        <f t="shared" si="8"/>
         <v>539</v>
       </c>
     </row>
@@ -27936,7 +27940,7 @@
         <v>52.376190999999999</v>
       </c>
       <c r="I541">
-        <f>1+I540</f>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
     </row>
@@ -27966,7 +27970,7 @@
         <v>52.354123000000001</v>
       </c>
       <c r="I542">
-        <f>1+I541</f>
+        <f t="shared" si="8"/>
         <v>541</v>
       </c>
     </row>
@@ -27996,7 +28000,7 @@
         <v>52.348505000000003</v>
       </c>
       <c r="I543">
-        <f>1+I542</f>
+        <f t="shared" si="8"/>
         <v>542</v>
       </c>
     </row>
@@ -28026,7 +28030,7 @@
         <v>52.410584</v>
       </c>
       <c r="I544">
-        <f>1+I543</f>
+        <f t="shared" si="8"/>
         <v>543</v>
       </c>
     </row>
@@ -28056,7 +28060,7 @@
         <v>52.394486999999998</v>
       </c>
       <c r="I545">
-        <f>1+I544</f>
+        <f t="shared" si="8"/>
         <v>544</v>
       </c>
     </row>
@@ -28086,7 +28090,7 @@
         <v>52.394477999999999</v>
       </c>
       <c r="I546">
-        <f>1+I545</f>
+        <f t="shared" si="8"/>
         <v>545</v>
       </c>
     </row>
@@ -28116,7 +28120,7 @@
         <v>52.394567000000002</v>
       </c>
       <c r="I547">
-        <f>1+I546</f>
+        <f t="shared" si="8"/>
         <v>546</v>
       </c>
     </row>
@@ -28146,7 +28150,7 @@
         <v>52.409609000000003</v>
       </c>
       <c r="I548">
-        <f>1+I547</f>
+        <f t="shared" si="8"/>
         <v>547</v>
       </c>
     </row>
@@ -28176,7 +28180,7 @@
         <v>52.393227000000003</v>
       </c>
       <c r="I549">
-        <f>1+I548</f>
+        <f t="shared" si="8"/>
         <v>548</v>
       </c>
     </row>
@@ -28206,7 +28210,7 @@
         <v>52.378566999999997</v>
       </c>
       <c r="I550">
-        <f>1+I549</f>
+        <f t="shared" si="8"/>
         <v>549</v>
       </c>
     </row>
@@ -28236,7 +28240,7 @@
         <v>52.379007000000001</v>
       </c>
       <c r="I551">
-        <f>1+I550</f>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
     </row>
@@ -28266,7 +28270,7 @@
         <v>52.321171999999997</v>
       </c>
       <c r="I552">
-        <f>1+I551</f>
+        <f t="shared" si="8"/>
         <v>551</v>
       </c>
     </row>
@@ -28296,7 +28300,7 @@
         <v>52.353658000000003</v>
       </c>
       <c r="I553">
-        <f>1+I552</f>
+        <f t="shared" si="8"/>
         <v>552</v>
       </c>
     </row>
@@ -28326,7 +28330,7 @@
         <v>52.377459999999999</v>
       </c>
       <c r="I554">
-        <f>1+I553</f>
+        <f t="shared" si="8"/>
         <v>553</v>
       </c>
     </row>
@@ -28356,7 +28360,7 @@
         <v>52.371484000000002</v>
       </c>
       <c r="I555">
-        <f>1+I554</f>
+        <f t="shared" si="8"/>
         <v>554</v>
       </c>
     </row>
@@ -28386,7 +28390,7 @@
         <v>52.383918000000001</v>
       </c>
       <c r="I556">
-        <f>1+I555</f>
+        <f t="shared" si="8"/>
         <v>555</v>
       </c>
     </row>
@@ -28416,7 +28420,7 @@
         <v>52.309724000000003</v>
       </c>
       <c r="I557">
-        <f>1+I556</f>
+        <f t="shared" si="8"/>
         <v>556</v>
       </c>
     </row>
@@ -28446,7 +28450,7 @@
         <v>52.409314000000002</v>
       </c>
       <c r="I558">
-        <f>1+I557</f>
+        <f t="shared" si="8"/>
         <v>557</v>
       </c>
     </row>
@@ -28476,7 +28480,7 @@
         <v>52.318672999999997</v>
       </c>
       <c r="I559">
-        <f>1+I558</f>
+        <f t="shared" si="8"/>
         <v>558</v>
       </c>
     </row>
@@ -28506,7 +28510,7 @@
         <v>52.356914000000003</v>
       </c>
       <c r="I560">
-        <f>1+I559</f>
+        <f t="shared" si="8"/>
         <v>559</v>
       </c>
     </row>
@@ -28536,7 +28540,7 @@
         <v>52.349452999999997</v>
       </c>
       <c r="I561">
-        <f>1+I560</f>
+        <f t="shared" si="8"/>
         <v>560</v>
       </c>
     </row>
@@ -28566,7 +28570,7 @@
         <v>52.385525000000001</v>
       </c>
       <c r="I562">
-        <f>1+I561</f>
+        <f t="shared" si="8"/>
         <v>561</v>
       </c>
     </row>
@@ -28596,7 +28600,7 @@
         <v>52.373868000000002</v>
       </c>
       <c r="I563">
-        <f>1+I562</f>
+        <f t="shared" si="8"/>
         <v>562</v>
       </c>
     </row>
@@ -28626,7 +28630,7 @@
         <v>52.377173999999997</v>
       </c>
       <c r="I564">
-        <f>1+I563</f>
+        <f t="shared" si="8"/>
         <v>563</v>
       </c>
     </row>
@@ -28656,7 +28660,7 @@
         <v>52.356903000000003</v>
       </c>
       <c r="I565">
-        <f>1+I564</f>
+        <f t="shared" si="8"/>
         <v>564</v>
       </c>
     </row>
@@ -28686,7 +28690,7 @@
         <v>52.358347999999999</v>
       </c>
       <c r="I566">
-        <f>1+I565</f>
+        <f t="shared" si="8"/>
         <v>565</v>
       </c>
     </row>
@@ -28716,7 +28720,7 @@
         <v>52.366908000000002</v>
       </c>
       <c r="I567">
-        <f>1+I566</f>
+        <f t="shared" si="8"/>
         <v>566</v>
       </c>
     </row>
@@ -28746,7 +28750,7 @@
         <v>52.354534999999998</v>
       </c>
       <c r="I568">
-        <f>1+I567</f>
+        <f t="shared" si="8"/>
         <v>567</v>
       </c>
     </row>
@@ -28776,7 +28780,7 @@
         <v>52.311632000000003</v>
       </c>
       <c r="I569">
-        <f>1+I568</f>
+        <f t="shared" si="8"/>
         <v>568</v>
       </c>
     </row>
@@ -28806,7 +28810,7 @@
         <v>52.379133000000003</v>
       </c>
       <c r="I570">
-        <f>1+I569</f>
+        <f t="shared" si="8"/>
         <v>569</v>
       </c>
     </row>
@@ -28836,7 +28840,7 @@
         <v>52.377316999999998</v>
       </c>
       <c r="I571">
-        <f>1+I570</f>
+        <f t="shared" si="8"/>
         <v>570</v>
       </c>
     </row>
@@ -28866,7 +28870,7 @@
         <v>52.372582999999999</v>
       </c>
       <c r="I572">
-        <f>1+I571</f>
+        <f t="shared" si="8"/>
         <v>571</v>
       </c>
     </row>
@@ -28896,7 +28900,7 @@
         <v>52.361322999999999</v>
       </c>
       <c r="I573">
-        <f>1+I572</f>
+        <f t="shared" si="8"/>
         <v>572</v>
       </c>
     </row>
@@ -28926,7 +28930,7 @@
         <v>52.374015999999997</v>
       </c>
       <c r="I574">
-        <f>1+I573</f>
+        <f t="shared" si="8"/>
         <v>573</v>
       </c>
     </row>
@@ -28956,7 +28960,7 @@
         <v>52.393577000000001</v>
       </c>
       <c r="I575">
-        <f>1+I574</f>
+        <f t="shared" si="8"/>
         <v>574</v>
       </c>
     </row>
@@ -28986,7 +28990,7 @@
         <v>52.379950999999998</v>
       </c>
       <c r="I576">
-        <f>1+I575</f>
+        <f t="shared" si="8"/>
         <v>575</v>
       </c>
     </row>
@@ -29016,7 +29020,7 @@
         <v>52.377799000000003</v>
       </c>
       <c r="I577">
-        <f>1+I576</f>
+        <f t="shared" si="8"/>
         <v>576</v>
       </c>
     </row>
@@ -29046,7 +29050,7 @@
         <v>52.353645</v>
       </c>
       <c r="I578">
-        <f>1+I577</f>
+        <f t="shared" ref="I578:I641" si="9">1+I577</f>
         <v>577</v>
       </c>
     </row>
@@ -29076,7 +29080,7 @@
         <v>52.377377000000003</v>
       </c>
       <c r="I579">
-        <f>1+I578</f>
+        <f t="shared" si="9"/>
         <v>578</v>
       </c>
     </row>
@@ -29106,7 +29110,7 @@
         <v>52.367915000000004</v>
       </c>
       <c r="I580">
-        <f>1+I579</f>
+        <f t="shared" si="9"/>
         <v>579</v>
       </c>
     </row>
@@ -29136,7 +29140,7 @@
         <v>52.409584000000002</v>
       </c>
       <c r="I581">
-        <f>1+I580</f>
+        <f t="shared" si="9"/>
         <v>580</v>
       </c>
     </row>
@@ -29166,7 +29170,7 @@
         <v>52.317512000000001</v>
       </c>
       <c r="I582">
-        <f>1+I581</f>
+        <f t="shared" si="9"/>
         <v>581</v>
       </c>
     </row>
@@ -29196,7 +29200,7 @@
         <v>52.352919</v>
       </c>
       <c r="I583">
-        <f>1+I582</f>
+        <f t="shared" si="9"/>
         <v>582</v>
       </c>
     </row>
@@ -29226,7 +29230,7 @@
         <v>52.355933</v>
       </c>
       <c r="I584">
-        <f>1+I583</f>
+        <f t="shared" si="9"/>
         <v>583</v>
       </c>
     </row>
@@ -29256,7 +29260,7 @@
         <v>52.344594999999998</v>
       </c>
       <c r="I585">
-        <f>1+I584</f>
+        <f t="shared" si="9"/>
         <v>584</v>
       </c>
     </row>
@@ -29286,7 +29290,7 @@
         <v>52.360048999999997</v>
       </c>
       <c r="I586">
-        <f>1+I585</f>
+        <f t="shared" si="9"/>
         <v>585</v>
       </c>
     </row>
@@ -29316,7 +29320,7 @@
         <v>52.375360000000001</v>
       </c>
       <c r="I587">
-        <f>1+I586</f>
+        <f t="shared" si="9"/>
         <v>586</v>
       </c>
     </row>
@@ -29346,7 +29350,7 @@
         <v>52.367652</v>
       </c>
       <c r="I588">
-        <f>1+I587</f>
+        <f t="shared" si="9"/>
         <v>587</v>
       </c>
     </row>
@@ -29376,7 +29380,7 @@
         <v>52.317673999999997</v>
       </c>
       <c r="I589">
-        <f>1+I588</f>
+        <f t="shared" si="9"/>
         <v>588</v>
       </c>
     </row>
@@ -29406,7 +29410,7 @@
         <v>52.342435000000002</v>
       </c>
       <c r="I590">
-        <f>1+I589</f>
+        <f t="shared" si="9"/>
         <v>589</v>
       </c>
     </row>
@@ -29436,7 +29440,7 @@
         <v>52.359276999999999</v>
       </c>
       <c r="I591">
-        <f>1+I590</f>
+        <f t="shared" si="9"/>
         <v>590</v>
       </c>
     </row>
@@ -29466,7 +29470,7 @@
         <v>52.357529999999997</v>
       </c>
       <c r="I592">
-        <f>1+I591</f>
+        <f t="shared" si="9"/>
         <v>591</v>
       </c>
     </row>
@@ -29496,7 +29500,7 @@
         <v>52.369202000000001</v>
       </c>
       <c r="I593">
-        <f>1+I592</f>
+        <f t="shared" si="9"/>
         <v>592</v>
       </c>
     </row>
@@ -29526,7 +29530,7 @@
         <v>52.317410000000002</v>
       </c>
       <c r="I594">
-        <f>1+I593</f>
+        <f t="shared" si="9"/>
         <v>593</v>
       </c>
     </row>
@@ -29556,7 +29560,7 @@
         <v>52.316854999999997</v>
       </c>
       <c r="I595">
-        <f>1+I594</f>
+        <f t="shared" si="9"/>
         <v>594</v>
       </c>
     </row>
@@ -29586,7 +29590,7 @@
         <v>52.292974000000001</v>
       </c>
       <c r="I596">
-        <f>1+I595</f>
+        <f t="shared" si="9"/>
         <v>595</v>
       </c>
     </row>
@@ -29616,7 +29620,7 @@
         <v>52.379072000000001</v>
       </c>
       <c r="I597">
-        <f>1+I596</f>
+        <f t="shared" si="9"/>
         <v>596</v>
       </c>
     </row>
@@ -29646,7 +29650,7 @@
         <v>52.322384</v>
       </c>
       <c r="I598">
-        <f>1+I597</f>
+        <f t="shared" si="9"/>
         <v>597</v>
       </c>
     </row>
@@ -29676,7 +29680,7 @@
         <v>52.346366000000003</v>
       </c>
       <c r="I599">
-        <f>1+I598</f>
+        <f t="shared" si="9"/>
         <v>598</v>
       </c>
     </row>
@@ -29706,7 +29710,7 @@
         <v>52.376848000000003</v>
       </c>
       <c r="I600">
-        <f>1+I599</f>
+        <f t="shared" si="9"/>
         <v>599</v>
       </c>
     </row>
@@ -29736,7 +29740,7 @@
         <v>52.354616</v>
       </c>
       <c r="I601">
-        <f>1+I600</f>
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
     </row>
@@ -29766,7 +29770,7 @@
         <v>52.314</v>
       </c>
       <c r="I602">
-        <f>1+I601</f>
+        <f t="shared" si="9"/>
         <v>601</v>
       </c>
     </row>
@@ -29796,7 +29800,7 @@
         <v>52.320363999999998</v>
       </c>
       <c r="I603">
-        <f>1+I602</f>
+        <f t="shared" si="9"/>
         <v>602</v>
       </c>
     </row>
@@ -29826,7 +29830,7 @@
         <v>52.354762000000001</v>
       </c>
       <c r="I604">
-        <f>1+I603</f>
+        <f t="shared" si="9"/>
         <v>603</v>
       </c>
     </row>
@@ -29856,7 +29860,7 @@
         <v>52.366450999999998</v>
       </c>
       <c r="I605">
-        <f>1+I604</f>
+        <f t="shared" si="9"/>
         <v>604</v>
       </c>
     </row>
@@ -29886,7 +29890,7 @@
         <v>52.380679000000001</v>
       </c>
       <c r="I606">
-        <f>1+I605</f>
+        <f t="shared" si="9"/>
         <v>605</v>
       </c>
     </row>
@@ -29916,7 +29920,7 @@
         <v>52.317293999999997</v>
       </c>
       <c r="I607">
-        <f>1+I606</f>
+        <f t="shared" si="9"/>
         <v>606</v>
       </c>
     </row>
@@ -29946,7 +29950,7 @@
         <v>52.346010999999997</v>
       </c>
       <c r="I608">
-        <f>1+I607</f>
+        <f t="shared" si="9"/>
         <v>607</v>
       </c>
     </row>
@@ -29976,7 +29980,7 @@
         <v>52.359997999999997</v>
       </c>
       <c r="I609">
-        <f>1+I608</f>
+        <f t="shared" si="9"/>
         <v>608</v>
       </c>
     </row>
@@ -30006,7 +30010,7 @@
         <v>52.393954999999998</v>
       </c>
       <c r="I610">
-        <f>1+I609</f>
+        <f t="shared" si="9"/>
         <v>609</v>
       </c>
     </row>
@@ -30036,7 +30040,7 @@
         <v>52.409986000000004</v>
       </c>
       <c r="I611">
-        <f>1+I610</f>
+        <f t="shared" si="9"/>
         <v>610</v>
       </c>
     </row>
@@ -30066,7 +30070,7 @@
         <v>52.347368000000003</v>
       </c>
       <c r="I612">
-        <f>1+I611</f>
+        <f t="shared" si="9"/>
         <v>611</v>
       </c>
     </row>
@@ -30096,7 +30100,7 @@
         <v>52.379837000000002</v>
       </c>
       <c r="I613">
-        <f>1+I612</f>
+        <f t="shared" si="9"/>
         <v>612</v>
       </c>
     </row>
@@ -30126,7 +30130,7 @@
         <v>52.292948000000003</v>
       </c>
       <c r="I614">
-        <f>1+I613</f>
+        <f t="shared" si="9"/>
         <v>613</v>
       </c>
     </row>
@@ -30156,7 +30160,7 @@
         <v>52.365104000000002</v>
       </c>
       <c r="I615">
-        <f>1+I614</f>
+        <f t="shared" si="9"/>
         <v>614</v>
       </c>
     </row>
@@ -30186,7 +30190,7 @@
         <v>52.388683999999998</v>
       </c>
       <c r="I616">
-        <f>1+I615</f>
+        <f t="shared" si="9"/>
         <v>615</v>
       </c>
     </row>
@@ -30216,7 +30220,7 @@
         <v>52.369038000000003</v>
       </c>
       <c r="I617">
-        <f>1+I616</f>
+        <f t="shared" si="9"/>
         <v>616</v>
       </c>
     </row>
@@ -30246,7 +30250,7 @@
         <v>52.294189000000003</v>
       </c>
       <c r="I618">
-        <f>1+I617</f>
+        <f t="shared" si="9"/>
         <v>617</v>
       </c>
     </row>
@@ -30276,7 +30280,7 @@
         <v>52.396526999999999</v>
       </c>
       <c r="I619">
-        <f>1+I618</f>
+        <f t="shared" si="9"/>
         <v>618</v>
       </c>
     </row>
@@ -30306,7 +30310,7 @@
         <v>52.380775</v>
       </c>
       <c r="I620">
-        <f>1+I619</f>
+        <f t="shared" si="9"/>
         <v>619</v>
       </c>
     </row>
@@ -30336,7 +30340,7 @@
         <v>52.383847000000003</v>
       </c>
       <c r="I621">
-        <f>1+I620</f>
+        <f t="shared" si="9"/>
         <v>620</v>
       </c>
     </row>
@@ -30366,7 +30370,7 @@
         <v>52.379474000000002</v>
       </c>
       <c r="I622">
-        <f>1+I621</f>
+        <f t="shared" si="9"/>
         <v>621</v>
       </c>
     </row>
@@ -30396,7 +30400,7 @@
         <v>52.362164</v>
       </c>
       <c r="I623">
-        <f>1+I622</f>
+        <f t="shared" si="9"/>
         <v>622</v>
       </c>
     </row>
@@ -30426,7 +30430,7 @@
         <v>52.375551000000002</v>
       </c>
       <c r="I624">
-        <f>1+I623</f>
+        <f t="shared" si="9"/>
         <v>623</v>
       </c>
     </row>
@@ -30456,7 +30460,7 @@
         <v>52.355441999999996</v>
       </c>
       <c r="I625">
-        <f>1+I624</f>
+        <f t="shared" si="9"/>
         <v>624</v>
       </c>
     </row>
@@ -30486,7 +30490,7 @@
         <v>52.362090000000002</v>
       </c>
       <c r="I626">
-        <f>1+I625</f>
+        <f t="shared" si="9"/>
         <v>625</v>
       </c>
     </row>
@@ -30516,7 +30520,7 @@
         <v>52.372762000000002</v>
       </c>
       <c r="I627">
-        <f>1+I626</f>
+        <f t="shared" si="9"/>
         <v>626</v>
       </c>
     </row>
@@ -30546,7 +30550,7 @@
         <v>52.394832000000001</v>
       </c>
       <c r="I628">
-        <f>1+I627</f>
+        <f t="shared" si="9"/>
         <v>627</v>
       </c>
     </row>
@@ -30576,7 +30580,7 @@
         <v>52.356428000000001</v>
       </c>
       <c r="I629">
-        <f>1+I628</f>
+        <f t="shared" si="9"/>
         <v>628</v>
       </c>
     </row>
@@ -30606,7 +30610,7 @@
         <v>52.364626000000001</v>
       </c>
       <c r="I630">
-        <f>1+I629</f>
+        <f t="shared" si="9"/>
         <v>629</v>
       </c>
     </row>
@@ -30636,7 +30640,7 @@
         <v>52.378</v>
       </c>
       <c r="I631">
-        <f>1+I630</f>
+        <f t="shared" si="9"/>
         <v>630</v>
       </c>
     </row>
@@ -30666,7 +30670,7 @@
         <v>52.363646000000003</v>
       </c>
       <c r="I632">
-        <f>1+I631</f>
+        <f t="shared" si="9"/>
         <v>631</v>
       </c>
     </row>
@@ -30696,7 +30700,7 @@
         <v>52.392364999999998</v>
       </c>
       <c r="I633">
-        <f>1+I632</f>
+        <f t="shared" si="9"/>
         <v>632</v>
       </c>
     </row>
@@ -30726,7 +30730,7 @@
         <v>52.370303999999997</v>
       </c>
       <c r="I634">
-        <f>1+I633</f>
+        <f t="shared" si="9"/>
         <v>633</v>
       </c>
     </row>
@@ -30756,7 +30760,7 @@
         <v>52.356020000000001</v>
       </c>
       <c r="I635">
-        <f>1+I634</f>
+        <f t="shared" si="9"/>
         <v>634</v>
       </c>
     </row>
@@ -30786,7 +30790,7 @@
         <v>52.356020000000001</v>
       </c>
       <c r="I636">
-        <f>1+I635</f>
+        <f t="shared" si="9"/>
         <v>635</v>
       </c>
     </row>
@@ -30816,7 +30820,7 @@
         <v>52.296421000000002</v>
       </c>
       <c r="I637">
-        <f>1+I636</f>
+        <f t="shared" si="9"/>
         <v>636</v>
       </c>
     </row>
@@ -30846,7 +30850,7 @@
         <v>52.318697999999998</v>
       </c>
       <c r="I638">
-        <f>1+I637</f>
+        <f t="shared" si="9"/>
         <v>637</v>
       </c>
     </row>
@@ -30876,7 +30880,7 @@
         <v>52.405579000000003</v>
       </c>
       <c r="I639">
-        <f>1+I638</f>
+        <f t="shared" si="9"/>
         <v>638</v>
       </c>
     </row>
@@ -30906,7 +30910,7 @@
         <v>52.347318000000001</v>
       </c>
       <c r="I640">
-        <f>1+I639</f>
+        <f t="shared" si="9"/>
         <v>639</v>
       </c>
     </row>
@@ -30936,7 +30940,7 @@
         <v>52.408310999999998</v>
       </c>
       <c r="I641">
-        <f>1+I640</f>
+        <f t="shared" si="9"/>
         <v>640</v>
       </c>
     </row>
@@ -30966,7 +30970,7 @@
         <v>52.352811000000003</v>
       </c>
       <c r="I642">
-        <f>1+I641</f>
+        <f t="shared" ref="I642:I705" si="10">1+I641</f>
         <v>641</v>
       </c>
     </row>
@@ -30996,7 +31000,7 @@
         <v>52.370289</v>
       </c>
       <c r="I643">
-        <f>1+I642</f>
+        <f t="shared" si="10"/>
         <v>642</v>
       </c>
     </row>
@@ -31026,7 +31030,7 @@
         <v>52.379545999999998</v>
       </c>
       <c r="I644">
-        <f>1+I643</f>
+        <f t="shared" si="10"/>
         <v>643</v>
       </c>
     </row>
@@ -31056,7 +31060,7 @@
         <v>52.295031999999999</v>
       </c>
       <c r="I645">
-        <f>1+I644</f>
+        <f t="shared" si="10"/>
         <v>644</v>
       </c>
     </row>
@@ -31086,7 +31090,7 @@
         <v>52.345886</v>
       </c>
       <c r="I646">
-        <f>1+I645</f>
+        <f t="shared" si="10"/>
         <v>645</v>
       </c>
     </row>
@@ -31116,7 +31120,7 @@
         <v>52.371792999999997</v>
       </c>
       <c r="I647">
-        <f>1+I646</f>
+        <f t="shared" si="10"/>
         <v>646</v>
       </c>
     </row>
@@ -31146,7 +31150,7 @@
         <v>52.349995999999997</v>
       </c>
       <c r="I648">
-        <f>1+I647</f>
+        <f t="shared" si="10"/>
         <v>647</v>
       </c>
     </row>
@@ -31176,7 +31180,7 @@
         <v>52.376916000000001</v>
       </c>
       <c r="I649">
-        <f>1+I648</f>
+        <f t="shared" si="10"/>
         <v>648</v>
       </c>
     </row>
@@ -31206,7 +31210,7 @@
         <v>52.423619000000002</v>
       </c>
       <c r="I650">
-        <f>1+I649</f>
+        <f t="shared" si="10"/>
         <v>649</v>
       </c>
     </row>
@@ -31236,7 +31240,7 @@
         <v>52.305075000000002</v>
       </c>
       <c r="I651">
-        <f>1+I650</f>
+        <f t="shared" si="10"/>
         <v>650</v>
       </c>
     </row>
@@ -31266,7 +31270,7 @@
         <v>52.354824999999998</v>
       </c>
       <c r="I652">
-        <f>1+I651</f>
+        <f t="shared" si="10"/>
         <v>651</v>
       </c>
     </row>
@@ -31296,7 +31300,7 @@
         <v>52.373379999999997</v>
       </c>
       <c r="I653">
-        <f>1+I652</f>
+        <f t="shared" si="10"/>
         <v>652</v>
       </c>
     </row>
@@ -31326,7 +31330,7 @@
         <v>52.420465</v>
       </c>
       <c r="I654">
-        <f>1+I653</f>
+        <f t="shared" si="10"/>
         <v>653</v>
       </c>
     </row>
@@ -31356,7 +31360,7 @@
         <v>52.341845999999997</v>
       </c>
       <c r="I655">
-        <f>1+I654</f>
+        <f t="shared" si="10"/>
         <v>654</v>
       </c>
     </row>
@@ -31386,7 +31390,7 @@
         <v>52.371077</v>
       </c>
       <c r="I656">
-        <f>1+I655</f>
+        <f t="shared" si="10"/>
         <v>655</v>
       </c>
     </row>
@@ -31416,7 +31420,7 @@
         <v>52.364761000000001</v>
       </c>
       <c r="I657">
-        <f>1+I656</f>
+        <f t="shared" si="10"/>
         <v>656</v>
       </c>
     </row>
@@ -31446,7 +31450,7 @@
         <v>52.373268000000003</v>
       </c>
       <c r="I658">
-        <f>1+I657</f>
+        <f t="shared" si="10"/>
         <v>657</v>
       </c>
     </row>
@@ -31476,7 +31480,7 @@
         <v>52.369244000000002</v>
       </c>
       <c r="I659">
-        <f>1+I658</f>
+        <f t="shared" si="10"/>
         <v>658</v>
       </c>
     </row>
@@ -31506,7 +31510,7 @@
         <v>52.325473000000002</v>
       </c>
       <c r="I660">
-        <f>1+I659</f>
+        <f t="shared" si="10"/>
         <v>659</v>
       </c>
     </row>
@@ -31536,7 +31540,7 @@
         <v>52.297840999999998</v>
       </c>
       <c r="I661">
-        <f>1+I660</f>
+        <f t="shared" si="10"/>
         <v>660</v>
       </c>
     </row>
@@ -31566,7 +31570,7 @@
         <v>52.363273999999997</v>
       </c>
       <c r="I662">
-        <f>1+I661</f>
+        <f t="shared" si="10"/>
         <v>661</v>
       </c>
     </row>
@@ -31596,7 +31600,7 @@
         <v>52.379072000000001</v>
       </c>
       <c r="I663">
-        <f>1+I662</f>
+        <f t="shared" si="10"/>
         <v>662</v>
       </c>
     </row>
@@ -31626,7 +31630,7 @@
         <v>52.371555999999998</v>
       </c>
       <c r="I664">
-        <f>1+I663</f>
+        <f t="shared" si="10"/>
         <v>663</v>
       </c>
     </row>
@@ -31656,7 +31660,7 @@
         <v>52.373119000000003</v>
       </c>
       <c r="I665">
-        <f>1+I664</f>
+        <f t="shared" si="10"/>
         <v>664</v>
       </c>
     </row>
@@ -31686,7 +31690,7 @@
         <v>52.368943000000002</v>
       </c>
       <c r="I666">
-        <f>1+I665</f>
+        <f t="shared" si="10"/>
         <v>665</v>
       </c>
     </row>
@@ -31716,7 +31720,7 @@
         <v>52.376551999999997</v>
       </c>
       <c r="I667">
-        <f>1+I666</f>
+        <f t="shared" si="10"/>
         <v>666</v>
       </c>
     </row>
@@ -31746,7 +31750,7 @@
         <v>52.325524999999999</v>
       </c>
       <c r="I668">
-        <f>1+I667</f>
+        <f t="shared" si="10"/>
         <v>667</v>
       </c>
     </row>
@@ -31776,7 +31780,7 @@
         <v>52.423805000000002</v>
       </c>
       <c r="I669">
-        <f>1+I668</f>
+        <f t="shared" si="10"/>
         <v>668</v>
       </c>
     </row>
@@ -31806,7 +31810,7 @@
         <v>52.344264000000003</v>
       </c>
       <c r="I670">
-        <f>1+I669</f>
+        <f t="shared" si="10"/>
         <v>669</v>
       </c>
     </row>
@@ -31836,7 +31840,7 @@
         <v>52.345050999999998</v>
       </c>
       <c r="I671">
-        <f>1+I670</f>
+        <f t="shared" si="10"/>
         <v>670</v>
       </c>
     </row>
@@ -31866,7 +31870,7 @@
         <v>52.372221000000003</v>
       </c>
       <c r="I672">
-        <f>1+I671</f>
+        <f t="shared" si="10"/>
         <v>671</v>
       </c>
     </row>
@@ -31896,7 +31900,7 @@
         <v>52.345103999999999</v>
       </c>
       <c r="I673">
-        <f>1+I672</f>
+        <f t="shared" si="10"/>
         <v>672</v>
       </c>
     </row>
@@ -31926,7 +31930,7 @@
         <v>52.343781999999997</v>
       </c>
       <c r="I674">
-        <f>1+I673</f>
+        <f t="shared" si="10"/>
         <v>673</v>
       </c>
     </row>
@@ -31956,7 +31960,7 @@
         <v>52.377870999999999</v>
       </c>
       <c r="I675">
-        <f>1+I674</f>
+        <f t="shared" si="10"/>
         <v>674</v>
       </c>
     </row>
@@ -31986,7 +31990,7 @@
         <v>52.408268999999997</v>
       </c>
       <c r="I676">
-        <f>1+I675</f>
+        <f t="shared" si="10"/>
         <v>675</v>
       </c>
     </row>
@@ -32016,7 +32020,7 @@
         <v>52.364801999999997</v>
       </c>
       <c r="I677">
-        <f>1+I676</f>
+        <f t="shared" si="10"/>
         <v>676</v>
       </c>
     </row>
@@ -32046,7 +32050,7 @@
         <v>52.379218999999999</v>
       </c>
       <c r="I678">
-        <f>1+I677</f>
+        <f t="shared" si="10"/>
         <v>677</v>
       </c>
     </row>
@@ -32076,7 +32080,7 @@
         <v>52.360242999999997</v>
       </c>
       <c r="I679">
-        <f>1+I678</f>
+        <f t="shared" si="10"/>
         <v>678</v>
       </c>
     </row>
@@ -32106,7 +32110,7 @@
         <v>52.333097000000002</v>
       </c>
       <c r="I680">
-        <f>1+I679</f>
+        <f t="shared" si="10"/>
         <v>679</v>
       </c>
     </row>
@@ -32136,7 +32140,7 @@
         <v>52.375059</v>
       </c>
       <c r="I681">
-        <f>1+I680</f>
+        <f t="shared" si="10"/>
         <v>680</v>
       </c>
     </row>
@@ -32166,7 +32170,7 @@
         <v>52.360906</v>
       </c>
       <c r="I682">
-        <f>1+I681</f>
+        <f t="shared" si="10"/>
         <v>681</v>
       </c>
     </row>
@@ -32196,7 +32200,7 @@
         <v>52.294243999999999</v>
       </c>
       <c r="I683">
-        <f>1+I682</f>
+        <f t="shared" si="10"/>
         <v>682</v>
       </c>
     </row>
@@ -32226,7 +32230,7 @@
         <v>52.301346000000002</v>
       </c>
       <c r="I684">
-        <f>1+I683</f>
+        <f t="shared" si="10"/>
         <v>683</v>
       </c>
     </row>
@@ -32256,7 +32260,7 @@
         <v>52.347341</v>
       </c>
       <c r="I685">
-        <f>1+I684</f>
+        <f t="shared" si="10"/>
         <v>684</v>
       </c>
     </row>
@@ -32286,7 +32290,7 @@
         <v>52.401519</v>
       </c>
       <c r="I686">
-        <f>1+I685</f>
+        <f t="shared" si="10"/>
         <v>685</v>
       </c>
     </row>
@@ -32316,7 +32320,7 @@
         <v>52.388159999999999</v>
       </c>
       <c r="I687">
-        <f>1+I686</f>
+        <f t="shared" si="10"/>
         <v>686</v>
       </c>
     </row>
@@ -32346,7 +32350,7 @@
         <v>52.376105000000003</v>
       </c>
       <c r="I688">
-        <f>1+I687</f>
+        <f t="shared" si="10"/>
         <v>687</v>
       </c>
     </row>
@@ -32376,7 +32380,7 @@
         <v>52.371682999999997</v>
       </c>
       <c r="I689">
-        <f>1+I688</f>
+        <f t="shared" si="10"/>
         <v>688</v>
       </c>
     </row>
@@ -32406,7 +32410,7 @@
         <v>52.356512000000002</v>
       </c>
       <c r="I690">
-        <f>1+I689</f>
+        <f t="shared" si="10"/>
         <v>689</v>
       </c>
     </row>
@@ -32436,7 +32440,7 @@
         <v>52.376064999999997</v>
       </c>
       <c r="I691">
-        <f>1+I690</f>
+        <f t="shared" si="10"/>
         <v>690</v>
       </c>
     </row>
@@ -32466,7 +32470,7 @@
         <v>52.353937000000002</v>
       </c>
       <c r="I692">
-        <f>1+I691</f>
+        <f t="shared" si="10"/>
         <v>691</v>
       </c>
     </row>
@@ -32496,7 +32500,7 @@
         <v>52.382137999999998</v>
       </c>
       <c r="I693">
-        <f>1+I692</f>
+        <f t="shared" si="10"/>
         <v>692</v>
       </c>
     </row>
@@ -32526,7 +32530,7 @@
         <v>52.383526000000003</v>
       </c>
       <c r="I694">
-        <f>1+I693</f>
+        <f t="shared" si="10"/>
         <v>693</v>
       </c>
     </row>
@@ -32556,7 +32560,7 @@
         <v>52.375267999999998</v>
       </c>
       <c r="I695">
-        <f>1+I694</f>
+        <f t="shared" si="10"/>
         <v>694</v>
       </c>
     </row>
@@ -32586,7 +32590,7 @@
         <v>52.407476000000003</v>
       </c>
       <c r="I696">
-        <f>1+I695</f>
+        <f t="shared" si="10"/>
         <v>695</v>
       </c>
     </row>
@@ -32616,7 +32620,7 @@
         <v>52.374321000000002</v>
       </c>
       <c r="I697">
-        <f>1+I696</f>
+        <f t="shared" si="10"/>
         <v>696</v>
       </c>
     </row>
@@ -32646,7 +32650,7 @@
         <v>52.393265999999997</v>
       </c>
       <c r="I698">
-        <f>1+I697</f>
+        <f t="shared" si="10"/>
         <v>697</v>
       </c>
     </row>
@@ -32676,7 +32680,7 @@
         <v>52.362011000000003</v>
       </c>
       <c r="I699">
-        <f>1+I698</f>
+        <f t="shared" si="10"/>
         <v>698</v>
       </c>
     </row>
@@ -32706,7 +32710,7 @@
         <v>52.368502999999997</v>
       </c>
       <c r="I700">
-        <f>1+I699</f>
+        <f t="shared" si="10"/>
         <v>699</v>
       </c>
     </row>
@@ -32736,7 +32740,7 @@
         <v>52.349279000000003</v>
       </c>
       <c r="I701">
-        <f>1+I700</f>
+        <f t="shared" si="10"/>
         <v>700</v>
       </c>
     </row>
@@ -32766,7 +32770,7 @@
         <v>52.362822000000001</v>
       </c>
       <c r="I702">
-        <f>1+I701</f>
+        <f t="shared" si="10"/>
         <v>701</v>
       </c>
     </row>
@@ -32796,7 +32800,7 @@
         <v>52.297600000000003</v>
       </c>
       <c r="I703">
-        <f>1+I702</f>
+        <f t="shared" si="10"/>
         <v>702</v>
       </c>
     </row>
@@ -32826,7 +32830,7 @@
         <v>52.321742999999998</v>
       </c>
       <c r="I704">
-        <f>1+I703</f>
+        <f t="shared" si="10"/>
         <v>703</v>
       </c>
     </row>
@@ -32856,7 +32860,7 @@
         <v>52.380828999999999</v>
       </c>
       <c r="I705">
-        <f>1+I704</f>
+        <f t="shared" si="10"/>
         <v>704</v>
       </c>
     </row>
@@ -32886,7 +32890,7 @@
         <v>52.352124000000003</v>
       </c>
       <c r="I706">
-        <f>1+I705</f>
+        <f t="shared" ref="I706:I769" si="11">1+I705</f>
         <v>705</v>
       </c>
     </row>
@@ -32916,7 +32920,7 @@
         <v>52.351033000000001</v>
       </c>
       <c r="I707">
-        <f>1+I706</f>
+        <f t="shared" si="11"/>
         <v>706</v>
       </c>
     </row>
@@ -32946,7 +32950,7 @@
         <v>52.361226000000002</v>
       </c>
       <c r="I708">
-        <f>1+I707</f>
+        <f t="shared" si="11"/>
         <v>707</v>
       </c>
     </row>
@@ -32976,7 +32980,7 @@
         <v>52.373750999999999</v>
       </c>
       <c r="I709">
-        <f>1+I708</f>
+        <f t="shared" si="11"/>
         <v>708</v>
       </c>
     </row>
@@ -33006,7 +33010,7 @@
         <v>52.392913999999998</v>
       </c>
       <c r="I710">
-        <f>1+I709</f>
+        <f t="shared" si="11"/>
         <v>709</v>
       </c>
     </row>
@@ -33036,7 +33040,7 @@
         <v>52.364806000000002</v>
       </c>
       <c r="I711">
-        <f>1+I710</f>
+        <f t="shared" si="11"/>
         <v>710</v>
       </c>
     </row>
@@ -33066,7 +33070,7 @@
         <v>52.354173000000003</v>
       </c>
       <c r="I712">
-        <f>1+I711</f>
+        <f t="shared" si="11"/>
         <v>711</v>
       </c>
     </row>
@@ -33096,7 +33100,7 @@
         <v>52.391545999999998</v>
       </c>
       <c r="I713">
-        <f>1+I712</f>
+        <f t="shared" si="11"/>
         <v>712</v>
       </c>
     </row>
@@ -33126,7 +33130,7 @@
         <v>52.347518000000001</v>
       </c>
       <c r="I714">
-        <f>1+I713</f>
+        <f t="shared" si="11"/>
         <v>713</v>
       </c>
     </row>
@@ -33156,7 +33160,7 @@
         <v>52.371271999999998</v>
       </c>
       <c r="I715">
-        <f>1+I714</f>
+        <f t="shared" si="11"/>
         <v>714</v>
       </c>
     </row>
@@ -33186,7 +33190,7 @@
         <v>52.367449000000001</v>
       </c>
       <c r="I716">
-        <f>1+I715</f>
+        <f t="shared" si="11"/>
         <v>715</v>
       </c>
     </row>
@@ -33216,7 +33220,7 @@
         <v>52.358927999999999</v>
       </c>
       <c r="I717">
-        <f>1+I716</f>
+        <f t="shared" si="11"/>
         <v>716</v>
       </c>
     </row>
@@ -33246,7 +33250,7 @@
         <v>52.305543</v>
       </c>
       <c r="I718">
-        <f>1+I717</f>
+        <f t="shared" si="11"/>
         <v>717</v>
       </c>
     </row>
@@ -33276,7 +33280,7 @@
         <v>52.380639000000002</v>
       </c>
       <c r="I719">
-        <f>1+I718</f>
+        <f t="shared" si="11"/>
         <v>718</v>
       </c>
     </row>
@@ -33306,7 +33310,7 @@
         <v>52.305295999999998</v>
       </c>
       <c r="I720">
-        <f>1+I719</f>
+        <f t="shared" si="11"/>
         <v>719</v>
       </c>
     </row>
@@ -33336,7 +33340,7 @@
         <v>52.356081000000003</v>
       </c>
       <c r="I721">
-        <f>1+I720</f>
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
     </row>
@@ -33366,7 +33370,7 @@
         <v>52.392217000000002</v>
       </c>
       <c r="I722">
-        <f>1+I721</f>
+        <f t="shared" si="11"/>
         <v>721</v>
       </c>
     </row>
@@ -33396,7 +33400,7 @@
         <v>52.377870999999999</v>
       </c>
       <c r="I723">
-        <f>1+I722</f>
+        <f t="shared" si="11"/>
         <v>722</v>
       </c>
     </row>
@@ -33426,7 +33430,7 @@
         <v>52.403385</v>
       </c>
       <c r="I724">
-        <f>1+I723</f>
+        <f t="shared" si="11"/>
         <v>723</v>
       </c>
     </row>
@@ -33456,7 +33460,7 @@
         <v>52.377549999999999</v>
       </c>
       <c r="I725">
-        <f>1+I724</f>
+        <f t="shared" si="11"/>
         <v>724</v>
       </c>
     </row>
@@ -33486,7 +33490,7 @@
         <v>52.380642000000002</v>
       </c>
       <c r="I726">
-        <f>1+I725</f>
+        <f t="shared" si="11"/>
         <v>725</v>
       </c>
     </row>
@@ -33516,7 +33520,7 @@
         <v>52.352775999999999</v>
       </c>
       <c r="I727">
-        <f>1+I726</f>
+        <f t="shared" si="11"/>
         <v>726</v>
       </c>
     </row>
@@ -33546,7 +33550,7 @@
         <v>52.317822</v>
       </c>
       <c r="I728">
-        <f>1+I727</f>
+        <f t="shared" si="11"/>
         <v>727</v>
       </c>
     </row>
@@ -33576,7 +33580,7 @@
         <v>52.400905000000002</v>
       </c>
       <c r="I729">
-        <f>1+I728</f>
+        <f t="shared" si="11"/>
         <v>728</v>
       </c>
     </row>
@@ -33606,7 +33610,7 @@
         <v>52.375408</v>
       </c>
       <c r="I730">
-        <f>1+I729</f>
+        <f t="shared" si="11"/>
         <v>729</v>
       </c>
     </row>
@@ -33636,7 +33640,7 @@
         <v>52.363439999999997</v>
       </c>
       <c r="I731">
-        <f>1+I730</f>
+        <f t="shared" si="11"/>
         <v>730</v>
       </c>
     </row>
@@ -33666,7 +33670,7 @@
         <v>52.382635000000001</v>
       </c>
       <c r="I732">
-        <f>1+I731</f>
+        <f t="shared" si="11"/>
         <v>731</v>
       </c>
     </row>
@@ -33696,7 +33700,7 @@
         <v>52.375387000000003</v>
       </c>
       <c r="I733">
-        <f>1+I732</f>
+        <f t="shared" si="11"/>
         <v>732</v>
       </c>
     </row>
@@ -33726,7 +33730,7 @@
         <v>52.361947000000001</v>
       </c>
       <c r="I734">
-        <f>1+I733</f>
+        <f t="shared" si="11"/>
         <v>733</v>
       </c>
     </row>
@@ -33756,7 +33760,7 @@
         <v>52.386865</v>
       </c>
       <c r="I735">
-        <f>1+I734</f>
+        <f t="shared" si="11"/>
         <v>734</v>
       </c>
     </row>
@@ -33786,7 +33790,7 @@
         <v>52.368026999999998</v>
       </c>
       <c r="I736">
-        <f>1+I735</f>
+        <f t="shared" si="11"/>
         <v>735</v>
       </c>
     </row>
@@ -33816,7 +33820,7 @@
         <v>52.378843000000003</v>
       </c>
       <c r="I737">
-        <f>1+I736</f>
+        <f t="shared" si="11"/>
         <v>736</v>
       </c>
     </row>
@@ -33846,7 +33850,7 @@
         <v>52.373491999999999</v>
       </c>
       <c r="I738">
-        <f>1+I737</f>
+        <f t="shared" si="11"/>
         <v>737</v>
       </c>
     </row>
@@ -33876,7 +33880,7 @@
         <v>52.368746000000002</v>
       </c>
       <c r="I739">
-        <f>1+I738</f>
+        <f t="shared" si="11"/>
         <v>738</v>
       </c>
     </row>
@@ -33906,7 +33910,7 @@
         <v>52.396262999999998</v>
       </c>
       <c r="I740">
-        <f>1+I739</f>
+        <f t="shared" si="11"/>
         <v>739</v>
       </c>
     </row>
@@ -33936,7 +33940,7 @@
         <v>52.358293000000003</v>
       </c>
       <c r="I741">
-        <f>1+I740</f>
+        <f t="shared" si="11"/>
         <v>740</v>
       </c>
     </row>
@@ -33966,7 +33970,7 @@
         <v>52.393448999999997</v>
       </c>
       <c r="I742">
-        <f>1+I741</f>
+        <f t="shared" si="11"/>
         <v>741</v>
       </c>
     </row>
@@ -33996,7 +34000,7 @@
         <v>52.347517000000003</v>
       </c>
       <c r="I743">
-        <f>1+I742</f>
+        <f t="shared" si="11"/>
         <v>742</v>
       </c>
     </row>
@@ -34026,7 +34030,7 @@
         <v>52.366754999999998</v>
       </c>
       <c r="I744">
-        <f>1+I743</f>
+        <f t="shared" si="11"/>
         <v>743</v>
       </c>
     </row>
@@ -34056,7 +34060,7 @@
         <v>52.33822</v>
       </c>
       <c r="I745">
-        <f>1+I744</f>
+        <f t="shared" si="11"/>
         <v>744</v>
       </c>
     </row>
@@ -34086,7 +34090,7 @@
         <v>52.33822</v>
       </c>
       <c r="I746">
-        <f>1+I745</f>
+        <f t="shared" si="11"/>
         <v>745</v>
       </c>
     </row>
@@ -34116,7 +34120,7 @@
         <v>52.364820999999999</v>
       </c>
       <c r="I747">
-        <f>1+I746</f>
+        <f t="shared" si="11"/>
         <v>746</v>
       </c>
     </row>
@@ -34146,7 +34150,7 @@
         <v>52.363292000000001</v>
       </c>
       <c r="I748">
-        <f>1+I747</f>
+        <f t="shared" si="11"/>
         <v>747</v>
       </c>
     </row>
@@ -34176,7 +34180,7 @@
         <v>52.347557999999999</v>
       </c>
       <c r="I749">
-        <f>1+I748</f>
+        <f t="shared" si="11"/>
         <v>748</v>
       </c>
     </row>
@@ -34206,7 +34210,7 @@
         <v>52.360892</v>
       </c>
       <c r="I750">
-        <f>1+I749</f>
+        <f t="shared" si="11"/>
         <v>749</v>
       </c>
     </row>
@@ -34236,7 +34240,7 @@
         <v>52.363742999999999</v>
       </c>
       <c r="I751">
-        <f>1+I750</f>
+        <f t="shared" si="11"/>
         <v>750</v>
       </c>
     </row>
@@ -34266,7 +34270,7 @@
         <v>52.406292000000001</v>
       </c>
       <c r="I752">
-        <f>1+I751</f>
+        <f t="shared" si="11"/>
         <v>751</v>
       </c>
     </row>
@@ -34296,7 +34300,7 @@
         <v>52.358834000000002</v>
       </c>
       <c r="I753">
-        <f>1+I752</f>
+        <f t="shared" si="11"/>
         <v>752</v>
       </c>
     </row>
@@ -34326,7 +34330,7 @@
         <v>52.367182</v>
       </c>
       <c r="I754">
-        <f>1+I753</f>
+        <f t="shared" si="11"/>
         <v>753</v>
       </c>
     </row>
@@ -34356,7 +34360,7 @@
         <v>52.358206000000003</v>
       </c>
       <c r="I755">
-        <f>1+I754</f>
+        <f t="shared" si="11"/>
         <v>754</v>
       </c>
     </row>
@@ -34386,7 +34390,7 @@
         <v>52.344453999999999</v>
       </c>
       <c r="I756">
-        <f>1+I755</f>
+        <f t="shared" si="11"/>
         <v>755</v>
       </c>
     </row>
@@ -34416,7 +34420,7 @@
         <v>52.352238</v>
       </c>
       <c r="I757">
-        <f>1+I756</f>
+        <f t="shared" si="11"/>
         <v>756</v>
       </c>
     </row>
@@ -34446,7 +34450,7 @@
         <v>52.338652000000003</v>
       </c>
       <c r="I758">
-        <f>1+I757</f>
+        <f t="shared" si="11"/>
         <v>757</v>
       </c>
     </row>
@@ -34476,7 +34480,7 @@
         <v>52.361947000000001</v>
       </c>
       <c r="I759">
-        <f>1+I758</f>
+        <f t="shared" si="11"/>
         <v>758</v>
       </c>
     </row>
@@ -34506,7 +34510,7 @@
         <v>52.357323000000001</v>
       </c>
       <c r="I760">
-        <f>1+I759</f>
+        <f t="shared" si="11"/>
         <v>759</v>
       </c>
     </row>
@@ -34536,7 +34540,7 @@
         <v>52.3686532505277</v>
       </c>
       <c r="I761">
-        <f>1+I760</f>
+        <f t="shared" si="11"/>
         <v>760</v>
       </c>
     </row>
@@ -34566,7 +34570,7 @@
         <v>52.343711999999996</v>
       </c>
       <c r="I762">
-        <f>1+I761</f>
+        <f t="shared" si="11"/>
         <v>761</v>
       </c>
     </row>
@@ -34596,7 +34600,7 @@
         <v>52.409584000000002</v>
       </c>
       <c r="I763">
-        <f>1+I762</f>
+        <f t="shared" si="11"/>
         <v>762</v>
       </c>
     </row>
@@ -34626,7 +34630,7 @@
         <v>52.366233999999999</v>
       </c>
       <c r="I764">
-        <f>1+I763</f>
+        <f t="shared" si="11"/>
         <v>763</v>
       </c>
     </row>
@@ -34656,7 +34660,7 @@
         <v>52.369804000000002</v>
       </c>
       <c r="I765">
-        <f>1+I764</f>
+        <f t="shared" si="11"/>
         <v>764</v>
       </c>
     </row>
@@ -34686,7 +34690,7 @@
         <v>52.343877999999997</v>
       </c>
       <c r="I766">
-        <f>1+I765</f>
+        <f t="shared" si="11"/>
         <v>765</v>
       </c>
     </row>
@@ -34716,7 +34720,7 @@
         <v>52.343736999999997</v>
       </c>
       <c r="I767">
-        <f>1+I766</f>
+        <f t="shared" si="11"/>
         <v>766</v>
       </c>
     </row>
@@ -34746,7 +34750,7 @@
         <v>52.359856000000001</v>
       </c>
       <c r="I768">
-        <f>1+I767</f>
+        <f t="shared" si="11"/>
         <v>767</v>
       </c>
     </row>
@@ -34776,7 +34780,7 @@
         <v>52.349621399999997</v>
       </c>
       <c r="I769">
-        <f>1+I768</f>
+        <f t="shared" si="11"/>
         <v>768</v>
       </c>
     </row>
@@ -34806,7 +34810,7 @@
         <v>52.344183000000001</v>
       </c>
       <c r="I770">
-        <f>1+I769</f>
+        <f t="shared" ref="I770:I833" si="12">1+I769</f>
         <v>769</v>
       </c>
     </row>
@@ -34836,7 +34840,7 @@
         <v>52.354844999999997</v>
       </c>
       <c r="I771">
-        <f>1+I770</f>
+        <f t="shared" si="12"/>
         <v>770</v>
       </c>
     </row>
@@ -34866,7 +34870,7 @@
         <v>52.358328999999998</v>
       </c>
       <c r="I772">
-        <f>1+I771</f>
+        <f t="shared" si="12"/>
         <v>771</v>
       </c>
     </row>
@@ -34896,7 +34900,7 @@
         <v>52.336348000000001</v>
       </c>
       <c r="I773">
-        <f>1+I772</f>
+        <f t="shared" si="12"/>
         <v>772</v>
       </c>
     </row>
@@ -34926,7 +34930,7 @@
         <v>52.347557999999999</v>
       </c>
       <c r="I774">
-        <f>1+I773</f>
+        <f t="shared" si="12"/>
         <v>773</v>
       </c>
     </row>
@@ -34956,7 +34960,7 @@
         <v>52.394100999999999</v>
       </c>
       <c r="I775">
-        <f>1+I774</f>
+        <f t="shared" si="12"/>
         <v>774</v>
       </c>
     </row>
@@ -34986,7 +34990,7 @@
         <v>52.352820000000001</v>
       </c>
       <c r="I776">
-        <f>1+I775</f>
+        <f t="shared" si="12"/>
         <v>775</v>
       </c>
     </row>
@@ -35016,7 +35020,7 @@
         <v>52.352269999999997</v>
       </c>
       <c r="I777">
-        <f>1+I776</f>
+        <f t="shared" si="12"/>
         <v>776</v>
       </c>
     </row>
@@ -35046,7 +35050,7 @@
         <v>52.378059999999998</v>
       </c>
       <c r="I778">
-        <f>1+I777</f>
+        <f t="shared" si="12"/>
         <v>777</v>
       </c>
     </row>
@@ -35076,7 +35080,7 @@
         <v>52.418863999999999</v>
       </c>
       <c r="I779">
-        <f>1+I778</f>
+        <f t="shared" si="12"/>
         <v>778</v>
       </c>
     </row>
@@ -35106,7 +35110,7 @@
         <v>52.332102999999996</v>
       </c>
       <c r="I780">
-        <f>1+I779</f>
+        <f t="shared" si="12"/>
         <v>779</v>
       </c>
     </row>
@@ -35136,7 +35140,7 @@
         <v>52.348998999999999</v>
       </c>
       <c r="I781">
-        <f>1+I780</f>
+        <f t="shared" si="12"/>
         <v>780</v>
       </c>
     </row>
@@ -35166,7 +35170,7 @@
         <v>52.335850999999998</v>
       </c>
       <c r="I782">
-        <f>1+I781</f>
+        <f t="shared" si="12"/>
         <v>781</v>
       </c>
     </row>
@@ -35196,7 +35200,7 @@
         <v>52.373918000000003</v>
       </c>
       <c r="I783">
-        <f>1+I782</f>
+        <f t="shared" si="12"/>
         <v>782</v>
       </c>
     </row>
@@ -35226,7 +35230,7 @@
         <v>52.417382000000003</v>
       </c>
       <c r="I784">
-        <f>1+I783</f>
+        <f t="shared" si="12"/>
         <v>783</v>
       </c>
     </row>
@@ -35256,7 +35260,7 @@
         <v>52.347368000000003</v>
       </c>
       <c r="I785">
-        <f>1+I784</f>
+        <f t="shared" si="12"/>
         <v>784</v>
       </c>
     </row>
@@ -35286,7 +35290,7 @@
         <v>52.350603999999997</v>
       </c>
       <c r="I786">
-        <f>1+I785</f>
+        <f t="shared" si="12"/>
         <v>785</v>
       </c>
     </row>
@@ -35316,7 +35320,7 @@
         <v>52.407694999999997</v>
       </c>
       <c r="I787">
-        <f>1+I786</f>
+        <f t="shared" si="12"/>
         <v>786</v>
       </c>
     </row>
@@ -35346,7 +35350,7 @@
         <v>52.347557999999999</v>
       </c>
       <c r="I788">
-        <f>1+I787</f>
+        <f t="shared" si="12"/>
         <v>787</v>
       </c>
     </row>
@@ -35376,7 +35380,7 @@
         <v>52.349200000000003</v>
       </c>
       <c r="I789">
-        <f>1+I788</f>
+        <f t="shared" si="12"/>
         <v>788</v>
       </c>
     </row>
@@ -35406,7 +35410,7 @@
         <v>52.356414000000001</v>
       </c>
       <c r="I790">
-        <f>1+I789</f>
+        <f t="shared" si="12"/>
         <v>789</v>
       </c>
     </row>
@@ -35436,7 +35440,7 @@
         <v>52.348894999999999</v>
       </c>
       <c r="I791">
-        <f>1+I790</f>
+        <f t="shared" si="12"/>
         <v>790</v>
       </c>
     </row>
@@ -35466,7 +35470,7 @@
         <v>52.350822999999998</v>
       </c>
       <c r="I792">
-        <f>1+I791</f>
+        <f t="shared" si="12"/>
         <v>791</v>
       </c>
     </row>
@@ -35496,7 +35500,7 @@
         <v>52.410538000000003</v>
       </c>
       <c r="I793">
-        <f>1+I792</f>
+        <f t="shared" si="12"/>
         <v>792</v>
       </c>
     </row>
@@ -35526,7 +35530,7 @@
         <v>52.382570000000001</v>
       </c>
       <c r="I794">
-        <f>1+I793</f>
+        <f t="shared" si="12"/>
         <v>793</v>
       </c>
     </row>
@@ -35556,7 +35560,7 @@
         <v>52.370823000000001</v>
       </c>
       <c r="I795">
-        <f>1+I794</f>
+        <f t="shared" si="12"/>
         <v>794</v>
       </c>
     </row>
@@ -35586,7 +35590,7 @@
         <v>52.361671999999999</v>
       </c>
       <c r="I796">
-        <f>1+I795</f>
+        <f t="shared" si="12"/>
         <v>795</v>
       </c>
     </row>
@@ -35616,7 +35620,7 @@
         <v>52.350225999999999</v>
       </c>
       <c r="I797">
-        <f>1+I796</f>
+        <f t="shared" si="12"/>
         <v>796</v>
       </c>
     </row>
@@ -35646,7 +35650,7 @@
         <v>52.347408999999999</v>
       </c>
       <c r="I798">
-        <f>1+I797</f>
+        <f t="shared" si="12"/>
         <v>797</v>
       </c>
     </row>
@@ -35676,7 +35680,7 @@
         <v>52.333205999999997</v>
       </c>
       <c r="I799">
-        <f>1+I798</f>
+        <f t="shared" si="12"/>
         <v>798</v>
       </c>
     </row>
@@ -35706,7 +35710,7 @@
         <v>52.291519000000001</v>
       </c>
       <c r="I800">
-        <f>1+I799</f>
+        <f t="shared" si="12"/>
         <v>799</v>
       </c>
     </row>
@@ -35736,7 +35740,7 @@
         <v>52.310513999999998</v>
       </c>
       <c r="I801">
-        <f>1+I800</f>
+        <f t="shared" si="12"/>
         <v>800</v>
       </c>
     </row>
@@ -35766,7 +35770,7 @@
         <v>52.363633999999998</v>
       </c>
       <c r="I802">
-        <f>1+I801</f>
+        <f t="shared" si="12"/>
         <v>801</v>
       </c>
     </row>
@@ -35796,7 +35800,7 @@
         <v>52.352324000000003</v>
       </c>
       <c r="I803">
-        <f>1+I802</f>
+        <f t="shared" si="12"/>
         <v>802</v>
       </c>
     </row>
@@ -35826,7 +35830,7 @@
         <v>52.348858999999997</v>
       </c>
       <c r="I804">
-        <f>1+I803</f>
+        <f t="shared" si="12"/>
         <v>803</v>
       </c>
     </row>
@@ -35856,7 +35860,7 @@
         <v>52.334488</v>
       </c>
       <c r="I805">
-        <f>1+I804</f>
+        <f t="shared" si="12"/>
         <v>804</v>
       </c>
     </row>
@@ -35886,7 +35890,7 @@
         <v>52.374738999999998</v>
       </c>
       <c r="I806">
-        <f>1+I805</f>
+        <f t="shared" si="12"/>
         <v>805</v>
       </c>
     </row>
@@ -35916,7 +35920,7 @@
         <v>52.372453999999998</v>
       </c>
       <c r="I807">
-        <f>1+I806</f>
+        <f t="shared" si="12"/>
         <v>806</v>
       </c>
     </row>
@@ -35946,7 +35950,7 @@
         <v>52.367260999999999</v>
       </c>
       <c r="I808">
-        <f>1+I807</f>
+        <f t="shared" si="12"/>
         <v>807</v>
       </c>
     </row>
@@ -35976,7 +35980,7 @@
         <v>52.346094000000001</v>
       </c>
       <c r="I809">
-        <f>1+I808</f>
+        <f t="shared" si="12"/>
         <v>808</v>
       </c>
     </row>
@@ -36006,7 +36010,7 @@
         <v>52.343401999999998</v>
       </c>
       <c r="I810">
-        <f>1+I809</f>
+        <f t="shared" si="12"/>
         <v>809</v>
       </c>
     </row>
@@ -36036,7 +36040,7 @@
         <v>52.365084000000003</v>
       </c>
       <c r="I811">
-        <f>1+I810</f>
+        <f t="shared" si="12"/>
         <v>810</v>
       </c>
     </row>
@@ -36066,7 +36070,7 @@
         <v>52.353302999999997</v>
       </c>
       <c r="I812">
-        <f>1+I811</f>
+        <f t="shared" si="12"/>
         <v>811</v>
       </c>
     </row>
@@ -36096,7 +36100,7 @@
         <v>52.38514</v>
       </c>
       <c r="I813">
-        <f>1+I812</f>
+        <f t="shared" si="12"/>
         <v>812</v>
       </c>
     </row>
@@ -36126,7 +36130,7 @@
         <v>52.360706999999998</v>
       </c>
       <c r="I814">
-        <f>1+I813</f>
+        <f t="shared" si="12"/>
         <v>813</v>
       </c>
     </row>
@@ -36156,7 +36160,7 @@
         <v>52.361929000000003</v>
       </c>
       <c r="I815">
-        <f>1+I814</f>
+        <f t="shared" si="12"/>
         <v>814</v>
       </c>
     </row>
@@ -36186,7 +36190,7 @@
         <v>52.345821999999998</v>
       </c>
       <c r="I816">
-        <f>1+I815</f>
+        <f t="shared" si="12"/>
         <v>815</v>
       </c>
     </row>
@@ -36216,7 +36220,7 @@
         <v>52.365326000000003</v>
       </c>
       <c r="I817">
-        <f>1+I816</f>
+        <f t="shared" si="12"/>
         <v>816</v>
       </c>
     </row>
@@ -36246,7 +36250,7 @@
         <v>52.362949</v>
       </c>
       <c r="I818">
-        <f>1+I817</f>
+        <f t="shared" si="12"/>
         <v>817</v>
       </c>
     </row>
@@ -36276,7 +36280,7 @@
         <v>52.349677999999997</v>
       </c>
       <c r="I819">
-        <f>1+I818</f>
+        <f t="shared" si="12"/>
         <v>818</v>
       </c>
     </row>
@@ -36306,7 +36310,7 @@
         <v>52.370359000000001</v>
       </c>
       <c r="I820">
-        <f>1+I819</f>
+        <f t="shared" si="12"/>
         <v>819</v>
       </c>
     </row>
@@ -36336,7 +36340,7 @@
         <v>52.3686532505277</v>
       </c>
       <c r="I821">
-        <f>1+I820</f>
+        <f t="shared" si="12"/>
         <v>820</v>
       </c>
     </row>
@@ -36366,7 +36370,7 @@
         <v>52.360284</v>
       </c>
       <c r="I822">
-        <f>1+I821</f>
+        <f t="shared" si="12"/>
         <v>821</v>
       </c>
     </row>
@@ -36396,7 +36400,7 @@
         <v>52.359175999999998</v>
       </c>
       <c r="I823">
-        <f>1+I822</f>
+        <f t="shared" si="12"/>
         <v>822</v>
       </c>
     </row>
@@ -36426,7 +36430,7 @@
         <v>52.370705999999998</v>
       </c>
       <c r="I824">
-        <f>1+I823</f>
+        <f t="shared" si="12"/>
         <v>823</v>
       </c>
     </row>
@@ -36456,7 +36460,7 @@
         <v>52.366965</v>
       </c>
       <c r="I825">
-        <f>1+I824</f>
+        <f t="shared" si="12"/>
         <v>824</v>
       </c>
     </row>
@@ -36486,7 +36490,7 @@
         <v>52.376280999999999</v>
       </c>
       <c r="I826">
-        <f>1+I825</f>
+        <f t="shared" si="12"/>
         <v>825</v>
       </c>
     </row>
@@ -36516,7 +36520,7 @@
         <v>52.362037999999998</v>
       </c>
       <c r="I827">
-        <f>1+I826</f>
+        <f t="shared" si="12"/>
         <v>826</v>
       </c>
     </row>
@@ -36546,7 +36550,7 @@
         <v>52.349265000000003</v>
       </c>
       <c r="I828">
-        <f>1+I827</f>
+        <f t="shared" si="12"/>
         <v>827</v>
       </c>
     </row>
@@ -36576,7 +36580,7 @@
         <v>52.346663999999997</v>
       </c>
       <c r="I829">
-        <f>1+I828</f>
+        <f t="shared" si="12"/>
         <v>828</v>
       </c>
     </row>
@@ -36606,7 +36610,7 @@
         <v>52.360824000000001</v>
       </c>
       <c r="I830">
-        <f>1+I829</f>
+        <f t="shared" si="12"/>
         <v>829</v>
       </c>
     </row>
@@ -36636,7 +36640,7 @@
         <v>52.373001000000002</v>
       </c>
       <c r="I831">
-        <f>1+I830</f>
+        <f t="shared" si="12"/>
         <v>830</v>
       </c>
     </row>
@@ -36666,7 +36670,7 @@
         <v>52.348806000000003</v>
       </c>
       <c r="I832">
-        <f>1+I831</f>
+        <f t="shared" si="12"/>
         <v>831</v>
       </c>
     </row>
@@ -36696,7 +36700,7 @@
         <v>52.367756999999997</v>
       </c>
       <c r="I833">
-        <f>1+I832</f>
+        <f t="shared" si="12"/>
         <v>832</v>
       </c>
     </row>
@@ -36726,7 +36730,7 @@
         <v>52.368144000000001</v>
       </c>
       <c r="I834">
-        <f>1+I833</f>
+        <f t="shared" ref="I834:I897" si="13">1+I833</f>
         <v>833</v>
       </c>
     </row>
@@ -36756,7 +36760,7 @@
         <v>52.362028000000002</v>
       </c>
       <c r="I835">
-        <f>1+I834</f>
+        <f t="shared" si="13"/>
         <v>834</v>
       </c>
     </row>
@@ -36786,7 +36790,7 @@
         <v>52.353135999999999</v>
       </c>
       <c r="I836">
-        <f>1+I835</f>
+        <f t="shared" si="13"/>
         <v>835</v>
       </c>
     </row>
@@ -36816,7 +36820,7 @@
         <v>52.394177999999997</v>
       </c>
       <c r="I837">
-        <f>1+I836</f>
+        <f t="shared" si="13"/>
         <v>836</v>
       </c>
     </row>
@@ -36846,7 +36850,7 @@
         <v>52.350754999999999</v>
       </c>
       <c r="I838">
-        <f>1+I837</f>
+        <f t="shared" si="13"/>
         <v>837</v>
       </c>
     </row>
@@ -36876,7 +36880,7 @@
         <v>52.315882999999999</v>
       </c>
       <c r="I839">
-        <f>1+I838</f>
+        <f t="shared" si="13"/>
         <v>838</v>
       </c>
     </row>
@@ -36906,7 +36910,7 @@
         <v>52.323884999999997</v>
       </c>
       <c r="I840">
-        <f>1+I839</f>
+        <f t="shared" si="13"/>
         <v>839</v>
       </c>
     </row>
@@ -36936,7 +36940,7 @@
         <v>52.338282999999997</v>
       </c>
       <c r="I841">
-        <f>1+I840</f>
+        <f t="shared" si="13"/>
         <v>840</v>
       </c>
     </row>
@@ -36966,7 +36970,7 @@
         <v>52.349164000000002</v>
       </c>
       <c r="I842">
-        <f>1+I841</f>
+        <f t="shared" si="13"/>
         <v>841</v>
       </c>
     </row>
@@ -36996,7 +37000,7 @@
         <v>52.353554000000003</v>
       </c>
       <c r="I843">
-        <f>1+I842</f>
+        <f t="shared" si="13"/>
         <v>842</v>
       </c>
     </row>
@@ -37026,7 +37030,7 @@
         <v>52.363382999999999</v>
       </c>
       <c r="I844">
-        <f>1+I843</f>
+        <f t="shared" si="13"/>
         <v>843</v>
       </c>
     </row>
@@ -37056,7 +37060,7 @@
         <v>52.350596000000003</v>
       </c>
       <c r="I845">
-        <f>1+I844</f>
+        <f t="shared" si="13"/>
         <v>844</v>
       </c>
     </row>
@@ -37086,7 +37090,7 @@
         <v>52.375342000000003</v>
       </c>
       <c r="I846">
-        <f>1+I845</f>
+        <f t="shared" si="13"/>
         <v>845</v>
       </c>
     </row>
@@ -37116,7 +37120,7 @@
         <v>52.367982300000001</v>
       </c>
       <c r="I847">
-        <f>1+I846</f>
+        <f t="shared" si="13"/>
         <v>846</v>
       </c>
     </row>
@@ -37146,7 +37150,7 @@
         <v>52.373016</v>
       </c>
       <c r="I848">
-        <f>1+I847</f>
+        <f t="shared" si="13"/>
         <v>847</v>
       </c>
     </row>
@@ -37176,7 +37180,7 @@
         <v>52.351421999999999</v>
       </c>
       <c r="I849">
-        <f>1+I848</f>
+        <f t="shared" si="13"/>
         <v>848</v>
       </c>
     </row>
@@ -37206,7 +37210,7 @@
         <v>52.366858000000001</v>
       </c>
       <c r="I850">
-        <f>1+I849</f>
+        <f t="shared" si="13"/>
         <v>849</v>
       </c>
     </row>
@@ -37236,7 +37240,7 @@
         <v>52.373257000000002</v>
       </c>
       <c r="I851">
-        <f>1+I850</f>
+        <f t="shared" si="13"/>
         <v>850</v>
       </c>
     </row>
@@ -37266,7 +37270,7 @@
         <v>52.347347999999997</v>
       </c>
       <c r="I852">
-        <f>1+I851</f>
+        <f t="shared" si="13"/>
         <v>851</v>
       </c>
     </row>
@@ -37296,7 +37300,7 @@
         <v>52.374420999999998</v>
       </c>
       <c r="I853">
-        <f>1+I852</f>
+        <f t="shared" si="13"/>
         <v>852</v>
       </c>
     </row>
@@ -37326,7 +37330,7 @@
         <v>52.366394999999997</v>
       </c>
       <c r="I854">
-        <f>1+I853</f>
+        <f t="shared" si="13"/>
         <v>853</v>
       </c>
     </row>
@@ -37356,7 +37360,7 @@
         <v>52.362146000000003</v>
       </c>
       <c r="I855">
-        <f>1+I854</f>
+        <f t="shared" si="13"/>
         <v>854</v>
       </c>
     </row>
@@ -37386,7 +37390,7 @@
         <v>52.325761999999997</v>
       </c>
       <c r="I856">
-        <f>1+I855</f>
+        <f t="shared" si="13"/>
         <v>855</v>
       </c>
     </row>
@@ -37416,7 +37420,7 @@
         <v>52.350555999999997</v>
       </c>
       <c r="I857">
-        <f>1+I856</f>
+        <f t="shared" si="13"/>
         <v>856</v>
       </c>
     </row>
@@ -37446,7 +37450,7 @@
         <v>52.419531999999997</v>
       </c>
       <c r="I858">
-        <f>1+I857</f>
+        <f t="shared" si="13"/>
         <v>857</v>
       </c>
     </row>
@@ -37476,7 +37480,7 @@
         <v>52.356701999999999</v>
       </c>
       <c r="I859">
-        <f>1+I858</f>
+        <f t="shared" si="13"/>
         <v>858</v>
       </c>
     </row>
@@ -37506,7 +37510,7 @@
         <v>52.349953999999997</v>
       </c>
       <c r="I860">
-        <f>1+I859</f>
+        <f t="shared" si="13"/>
         <v>859</v>
       </c>
     </row>
@@ -37536,7 +37540,7 @@
         <v>52.355065000000003</v>
       </c>
       <c r="I861">
-        <f>1+I860</f>
+        <f t="shared" si="13"/>
         <v>860</v>
       </c>
     </row>
@@ -37566,7 +37570,7 @@
         <v>52.347805999999999</v>
       </c>
       <c r="I862">
-        <f>1+I861</f>
+        <f t="shared" si="13"/>
         <v>861</v>
       </c>
     </row>
@@ -37596,7 +37600,7 @@
         <v>52.368029</v>
       </c>
       <c r="I863">
-        <f>1+I862</f>
+        <f t="shared" si="13"/>
         <v>862</v>
       </c>
     </row>
@@ -37626,7 +37630,7 @@
         <v>52.316164999999998</v>
       </c>
       <c r="I864">
-        <f>1+I863</f>
+        <f t="shared" si="13"/>
         <v>863</v>
       </c>
     </row>
@@ -37656,7 +37660,7 @@
         <v>52.373122000000002</v>
       </c>
       <c r="I865">
-        <f>1+I864</f>
+        <f t="shared" si="13"/>
         <v>864</v>
       </c>
     </row>
@@ -37686,7 +37690,7 @@
         <v>52.353408000000002</v>
       </c>
       <c r="I866">
-        <f>1+I865</f>
+        <f t="shared" si="13"/>
         <v>865</v>
       </c>
     </row>
@@ -37716,7 +37720,7 @@
         <v>52.324201000000002</v>
       </c>
       <c r="I867">
-        <f>1+I866</f>
+        <f t="shared" si="13"/>
         <v>866</v>
       </c>
     </row>
@@ -37746,7 +37750,7 @@
         <v>52.373106</v>
       </c>
       <c r="I868">
-        <f>1+I867</f>
+        <f t="shared" si="13"/>
         <v>867</v>
       </c>
     </row>
@@ -37776,7 +37780,7 @@
         <v>52.408945000000003</v>
       </c>
       <c r="I869">
-        <f>1+I868</f>
+        <f t="shared" si="13"/>
         <v>868</v>
       </c>
     </row>
@@ -37806,7 +37810,7 @@
         <v>52.388128000000002</v>
       </c>
       <c r="I870">
-        <f>1+I869</f>
+        <f t="shared" si="13"/>
         <v>869</v>
       </c>
     </row>
@@ -37836,7 +37840,7 @@
         <v>52.41986</v>
       </c>
       <c r="I871">
-        <f>1+I870</f>
+        <f t="shared" si="13"/>
         <v>870</v>
       </c>
     </row>
@@ -37866,7 +37870,7 @@
         <v>52.353369999999998</v>
       </c>
       <c r="I872">
-        <f>1+I871</f>
+        <f t="shared" si="13"/>
         <v>871</v>
       </c>
     </row>
@@ -37896,7 +37900,7 @@
         <v>52.358942999999996</v>
       </c>
       <c r="I873">
-        <f>1+I872</f>
+        <f t="shared" si="13"/>
         <v>872</v>
       </c>
     </row>
@@ -37926,7 +37930,7 @@
         <v>52.358942999999996</v>
       </c>
       <c r="I874">
-        <f>1+I873</f>
+        <f t="shared" si="13"/>
         <v>873</v>
       </c>
     </row>
@@ -37956,7 +37960,7 @@
         <v>52.364679000000002</v>
       </c>
       <c r="I875">
-        <f>1+I874</f>
+        <f t="shared" si="13"/>
         <v>874</v>
       </c>
     </row>
@@ -37986,7 +37990,7 @@
         <v>52.348087</v>
       </c>
       <c r="I876">
-        <f>1+I875</f>
+        <f t="shared" si="13"/>
         <v>875</v>
       </c>
     </row>
@@ -38016,7 +38020,7 @@
         <v>52.343623000000001</v>
       </c>
       <c r="I877">
-        <f>1+I876</f>
+        <f t="shared" si="13"/>
         <v>876</v>
       </c>
     </row>
@@ -38046,7 +38050,7 @@
         <v>52.346978</v>
       </c>
       <c r="I878">
-        <f>1+I877</f>
+        <f t="shared" si="13"/>
         <v>877</v>
       </c>
     </row>
@@ -38076,7 +38080,7 @@
         <v>52.374848</v>
       </c>
       <c r="I879">
-        <f>1+I878</f>
+        <f t="shared" si="13"/>
         <v>878</v>
       </c>
     </row>
@@ -38106,7 +38110,7 @@
         <v>52.360937</v>
       </c>
       <c r="I880">
-        <f>1+I879</f>
+        <f t="shared" si="13"/>
         <v>879</v>
       </c>
     </row>
@@ -38136,7 +38140,7 @@
         <v>52.353256000000002</v>
       </c>
       <c r="I881">
-        <f>1+I880</f>
+        <f t="shared" si="13"/>
         <v>880</v>
       </c>
     </row>
@@ -38166,7 +38170,7 @@
         <v>52.375993999999999</v>
       </c>
       <c r="I882">
-        <f>1+I881</f>
+        <f t="shared" si="13"/>
         <v>881</v>
       </c>
     </row>
@@ -38196,7 +38200,7 @@
         <v>52.374741999999998</v>
       </c>
       <c r="I883">
-        <f>1+I882</f>
+        <f t="shared" si="13"/>
         <v>882</v>
       </c>
     </row>
@@ -38226,7 +38230,7 @@
         <v>52.367117999999998</v>
       </c>
       <c r="I884">
-        <f>1+I883</f>
+        <f t="shared" si="13"/>
         <v>883</v>
       </c>
     </row>
@@ -38256,7 +38260,7 @@
         <v>52.359763000000001</v>
       </c>
       <c r="I885">
-        <f>1+I884</f>
+        <f t="shared" si="13"/>
         <v>884</v>
       </c>
     </row>
@@ -38286,7 +38290,7 @@
         <v>52.349904000000002</v>
       </c>
       <c r="I886">
-        <f>1+I885</f>
+        <f t="shared" si="13"/>
         <v>885</v>
       </c>
     </row>
@@ -38316,7 +38320,7 @@
         <v>52.366971999999997</v>
       </c>
       <c r="I887">
-        <f>1+I886</f>
+        <f t="shared" si="13"/>
         <v>886</v>
       </c>
     </row>
@@ -38346,7 +38350,7 @@
         <v>52.351894000000001</v>
       </c>
       <c r="I888">
-        <f>1+I887</f>
+        <f t="shared" si="13"/>
         <v>887</v>
       </c>
     </row>
@@ -38376,7 +38380,7 @@
         <v>52.400948</v>
       </c>
       <c r="I889">
-        <f>1+I888</f>
+        <f t="shared" si="13"/>
         <v>888</v>
       </c>
     </row>
@@ -38406,7 +38410,7 @@
         <v>52.369689000000001</v>
       </c>
       <c r="I890">
-        <f>1+I889</f>
+        <f t="shared" si="13"/>
         <v>889</v>
       </c>
     </row>
@@ -38436,7 +38440,7 @@
         <v>52.373342999999998</v>
       </c>
       <c r="I891">
-        <f>1+I890</f>
+        <f t="shared" si="13"/>
         <v>890</v>
       </c>
     </row>
@@ -38466,7 +38470,7 @@
         <v>52.413550000000001</v>
       </c>
       <c r="I892">
-        <f>1+I891</f>
+        <f t="shared" si="13"/>
         <v>891</v>
       </c>
     </row>
@@ -38496,7 +38500,7 @@
         <v>52.361333000000002</v>
       </c>
       <c r="I893">
-        <f>1+I892</f>
+        <f t="shared" si="13"/>
         <v>892</v>
       </c>
     </row>
@@ -38526,7 +38530,7 @@
         <v>52.400137999999998</v>
       </c>
       <c r="I894">
-        <f>1+I893</f>
+        <f t="shared" si="13"/>
         <v>893</v>
       </c>
     </row>
@@ -38556,7 +38560,7 @@
         <v>52.366984000000002</v>
       </c>
       <c r="I895">
-        <f>1+I894</f>
+        <f t="shared" si="13"/>
         <v>894</v>
       </c>
     </row>
@@ -38586,7 +38590,7 @@
         <v>52.37491</v>
       </c>
       <c r="I896">
-        <f>1+I895</f>
+        <f t="shared" si="13"/>
         <v>895</v>
       </c>
     </row>
@@ -38616,7 +38620,7 @@
         <v>52.349215000000001</v>
       </c>
       <c r="I897">
-        <f>1+I896</f>
+        <f t="shared" si="13"/>
         <v>896</v>
       </c>
     </row>
@@ -38646,7 +38650,7 @@
         <v>52.389087000000004</v>
       </c>
       <c r="I898">
-        <f>1+I897</f>
+        <f t="shared" ref="I898:I925" si="14">1+I897</f>
         <v>897</v>
       </c>
     </row>
@@ -38676,7 +38680,7 @@
         <v>52.358916999999998</v>
       </c>
       <c r="I899">
-        <f>1+I898</f>
+        <f t="shared" si="14"/>
         <v>898</v>
       </c>
     </row>
@@ -38706,7 +38710,7 @@
         <v>52.360577999999997</v>
       </c>
       <c r="I900">
-        <f>1+I899</f>
+        <f t="shared" si="14"/>
         <v>899</v>
       </c>
     </row>
@@ -38736,7 +38740,7 @@
         <v>52.355020000000003</v>
       </c>
       <c r="I901">
-        <f>1+I900</f>
+        <f t="shared" si="14"/>
         <v>900</v>
       </c>
     </row>
@@ -38766,7 +38770,7 @@
         <v>52.358631000000003</v>
       </c>
       <c r="I902">
-        <f>1+I901</f>
+        <f t="shared" si="14"/>
         <v>901</v>
       </c>
     </row>
@@ -38796,7 +38800,7 @@
         <v>52.358204000000001</v>
       </c>
       <c r="I903">
-        <f>1+I902</f>
+        <f t="shared" si="14"/>
         <v>902</v>
       </c>
     </row>
@@ -38826,7 +38830,7 @@
         <v>52.3686532505277</v>
       </c>
       <c r="I904">
-        <f>1+I903</f>
+        <f t="shared" si="14"/>
         <v>903</v>
       </c>
     </row>
@@ -38856,7 +38860,7 @@
         <v>52.364131999999998</v>
       </c>
       <c r="I905">
-        <f>1+I904</f>
+        <f t="shared" si="14"/>
         <v>904</v>
       </c>
     </row>
@@ -38886,7 +38890,7 @@
         <v>52.345565999999998</v>
       </c>
       <c r="I906">
-        <f>1+I905</f>
+        <f t="shared" si="14"/>
         <v>905</v>
       </c>
     </row>
@@ -38916,7 +38920,7 @@
         <v>52.373727000000002</v>
       </c>
       <c r="I907">
-        <f>1+I906</f>
+        <f t="shared" si="14"/>
         <v>906</v>
       </c>
     </row>
@@ -38946,7 +38950,7 @@
         <v>52.348635999999999</v>
       </c>
       <c r="I908">
-        <f>1+I907</f>
+        <f t="shared" si="14"/>
         <v>907</v>
       </c>
     </row>
@@ -38976,7 +38980,7 @@
         <v>52.410671999999998</v>
       </c>
       <c r="I909">
-        <f>1+I908</f>
+        <f t="shared" si="14"/>
         <v>908</v>
       </c>
     </row>
@@ -39006,7 +39010,7 @@
         <v>52.410671999999998</v>
       </c>
       <c r="I910">
-        <f>1+I909</f>
+        <f t="shared" si="14"/>
         <v>909</v>
       </c>
     </row>
@@ -39036,7 +39040,7 @@
         <v>52.385345999999998</v>
       </c>
       <c r="I911">
-        <f>1+I910</f>
+        <f t="shared" si="14"/>
         <v>910</v>
       </c>
     </row>
@@ -39066,7 +39070,7 @@
         <v>52.375756000000003</v>
       </c>
       <c r="I912">
-        <f>1+I911</f>
+        <f t="shared" si="14"/>
         <v>911</v>
       </c>
     </row>
@@ -39096,7 +39100,7 @@
         <v>52.376818999999998</v>
       </c>
       <c r="I913">
-        <f>1+I912</f>
+        <f t="shared" si="14"/>
         <v>912</v>
       </c>
     </row>
@@ -39126,7 +39130,7 @@
         <v>52.349527999999999</v>
       </c>
       <c r="I914">
-        <f>1+I913</f>
+        <f t="shared" si="14"/>
         <v>913</v>
       </c>
     </row>
@@ -39156,7 +39160,7 @@
         <v>52.361570999999998</v>
       </c>
       <c r="I915">
-        <f>1+I914</f>
+        <f t="shared" si="14"/>
         <v>914</v>
       </c>
     </row>
@@ -39186,7 +39190,7 @@
         <v>52.375532</v>
       </c>
       <c r="I916">
-        <f>1+I915</f>
+        <f t="shared" si="14"/>
         <v>915</v>
       </c>
     </row>
@@ -39216,7 +39220,7 @@
         <v>52.383876999999998</v>
       </c>
       <c r="I917">
-        <f>1+I916</f>
+        <f t="shared" si="14"/>
         <v>916</v>
       </c>
     </row>
@@ -39246,7 +39250,7 @@
         <v>52.352366000000004</v>
       </c>
       <c r="I918">
-        <f>1+I917</f>
+        <f t="shared" si="14"/>
         <v>917</v>
       </c>
     </row>
@@ -39276,7 +39280,7 @@
         <v>52.385320999999998</v>
       </c>
       <c r="I919">
-        <f>1+I918</f>
+        <f t="shared" si="14"/>
         <v>918</v>
       </c>
     </row>
@@ -39306,7 +39310,7 @@
         <v>52.355179</v>
       </c>
       <c r="I920">
-        <f>1+I919</f>
+        <f t="shared" si="14"/>
         <v>919</v>
       </c>
     </row>
@@ -39336,7 +39340,7 @@
         <v>52.365077999999997</v>
       </c>
       <c r="I921">
-        <f>1+I920</f>
+        <f t="shared" si="14"/>
         <v>920</v>
       </c>
     </row>
@@ -39366,7 +39370,7 @@
         <v>52.412038000000003</v>
       </c>
       <c r="I922">
-        <f>1+I921</f>
+        <f t="shared" si="14"/>
         <v>921</v>
       </c>
     </row>
@@ -39396,7 +39400,7 @@
         <v>52.354874000000002</v>
       </c>
       <c r="I923">
-        <f>1+I922</f>
+        <f t="shared" si="14"/>
         <v>922</v>
       </c>
     </row>
@@ -39426,7 +39430,7 @@
         <v>52.358798</v>
       </c>
       <c r="I924">
-        <f>1+I923</f>
+        <f t="shared" si="14"/>
         <v>923</v>
       </c>
     </row>
@@ -39456,7 +39460,7 @@
         <v>52.371039000000003</v>
       </c>
       <c r="I925">
-        <f>1+I924</f>
+        <f t="shared" si="14"/>
         <v>924</v>
       </c>
     </row>
